--- a/FR - Frame & Body/FR_A0300 (Pedal Assy)/Cost/FR_A0300.xlsx
+++ b/FR - Frame & Body/FR_A0300 (Pedal Assy)/Cost/FR_A0300.xlsx
@@ -16,8 +16,11 @@
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
     <sheet name="BOM" sheetId="8" r:id="rId2"/>
     <sheet name="FR A0300" sheetId="1" r:id="rId3"/>
-    <sheet name="FR Part 1" sheetId="2" r:id="rId4"/>
-    <sheet name="FR Drawing Part 1" sheetId="9" r:id="rId5"/>
+    <sheet name="FR_0300_000" sheetId="2" r:id="rId4"/>
+    <sheet name="dFR_0300_000" sheetId="9" r:id="rId5"/>
+    <sheet name="FR_0300_001" sheetId="13" r:id="rId6"/>
+    <sheet name="dFR_A0300_001" sheetId="14" r:id="rId7"/>
+    <sheet name="Modele part" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_____________uni2">#REF!</definedName>
@@ -48,19 +51,19 @@
     <definedName name="bgtrvfcd">#REF!</definedName>
     <definedName name="bgtvfc">#REF!</definedName>
     <definedName name="bgvfcd">#REF!</definedName>
-    <definedName name="BR_01001">'FR Part 1'!$B$6</definedName>
-    <definedName name="BR_01001_f">'FR Part 1'!$J$27</definedName>
-    <definedName name="BR_01001_m">'FR Part 1'!$N$12</definedName>
-    <definedName name="BR_01001_p">'FR Part 1'!$I$21</definedName>
-    <definedName name="BR_01001_q">'FR Part 1'!$N$3</definedName>
-    <definedName name="BR_01001_t">'FR Part 1'!$I$32</definedName>
+    <definedName name="BR_01001">FR_0300_000!$B$6</definedName>
+    <definedName name="BR_01001_f">FR_0300_000!#REF!</definedName>
+    <definedName name="BR_01001_m">FR_0300_000!$N$12</definedName>
+    <definedName name="BR_01001_p">FR_0300_000!$I$20</definedName>
+    <definedName name="BR_01001_q">FR_0300_000!$N$3</definedName>
+    <definedName name="BR_01001_t">FR_0300_000!#REF!</definedName>
     <definedName name="BR_A0001">'FR A0300'!$B$5</definedName>
-    <definedName name="BR_A0001_f">'FR A0300'!$J$104</definedName>
-    <definedName name="BR_A0001_m">'FR A0300'!$N$40</definedName>
+    <definedName name="BR_A0001_f">'FR A0300'!$J$138</definedName>
+    <definedName name="BR_A0001_m">'FR A0300'!$N$39</definedName>
     <definedName name="BR_A0001_p">'FR A0300'!$I$94</definedName>
     <definedName name="BR_A0001_pa">'FR A0300'!$E$26</definedName>
     <definedName name="BR_A0001_q">'FR A0300'!$N$3</definedName>
-    <definedName name="BR_A0001_t">'FR A0300'!$I$109</definedName>
+    <definedName name="BR_A0001_t">'FR A0300'!$I$143</definedName>
     <definedName name="btgrvf">#REF!</definedName>
     <definedName name="btvfcds">#REF!</definedName>
     <definedName name="Car" localSheetId="1">BOM!$B$4</definedName>
@@ -68,35 +71,35 @@
     <definedName name="CompCode" localSheetId="1">BOM!$B$2</definedName>
     <definedName name="CompCode">#REF!</definedName>
     <definedName name="cwlkvclwekjc">#REF!</definedName>
-    <definedName name="dBR_01001">'FR Drawing Part 1'!$B$1</definedName>
+    <definedName name="dBR_01001">dFR_0300_000!$B$1</definedName>
     <definedName name="dede">#REF!</definedName>
-    <definedName name="dEL_01001">'FR Drawing Part 1'!$B$1</definedName>
+    <definedName name="dEL_01001">dFR_0300_000!$B$1</definedName>
     <definedName name="dqwdqd">#REF!</definedName>
     <definedName name="eded">#REF!</definedName>
-    <definedName name="EL_01001">'FR Part 1'!$B$6</definedName>
-    <definedName name="EL_01001_f">'FR Part 1'!$J$27</definedName>
-    <definedName name="EL_01001_m">'FR Part 1'!$N$12</definedName>
-    <definedName name="EL_01001_p">'FR Part 1'!$I$21</definedName>
-    <definedName name="EL_01001_q">'FR Part 1'!$N$3</definedName>
-    <definedName name="EL_01001_t">'FR Part 1'!$I$32</definedName>
-    <definedName name="EL_02001">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_f">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_m">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_p">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_q">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_t">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02002">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_f">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_m">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_p">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_q">'FR Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_t">'FR Part 1'!#REF!</definedName>
+    <definedName name="EL_01001">FR_0300_000!$B$6</definedName>
+    <definedName name="EL_01001_f">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_01001_m">FR_0300_000!$N$12</definedName>
+    <definedName name="EL_01001_p">FR_0300_000!$I$20</definedName>
+    <definedName name="EL_01001_q">FR_0300_000!$N$3</definedName>
+    <definedName name="EL_01001_t">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02001">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02001_f">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02001_m">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02001_p">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02001_q">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02001_t">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02002">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02002_f">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02002_m">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02002_p">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02002_q">FR_0300_000!#REF!</definedName>
+    <definedName name="EL_02002_t">FR_0300_000!#REF!</definedName>
     <definedName name="EL_A0001">'FR A0300'!$B$5</definedName>
-    <definedName name="EL_A0001_f">'FR A0300'!$J$104</definedName>
-    <definedName name="El_A0001_m">'FR A0300'!$N$40</definedName>
+    <definedName name="EL_A0001_f">'FR A0300'!$J$138</definedName>
+    <definedName name="El_A0001_m">'FR A0300'!$N$39</definedName>
     <definedName name="EL_A0001_p">'FR A0300'!$I$94</definedName>
     <definedName name="EL_A0001_q">'FR A0300'!$N$3</definedName>
-    <definedName name="EL_A0001_t">'FR A0300'!$I$109</definedName>
+    <definedName name="EL_A0001_t">'FR A0300'!$I$143</definedName>
     <definedName name="EL_A0002">'FR A0300'!#REF!</definedName>
     <definedName name="EL_A0002_f">'FR A0300'!#REF!</definedName>
     <definedName name="EL_A0002_m">'FR A0300'!#REF!</definedName>
@@ -106,13 +109,26 @@
     <definedName name="er">#REF!</definedName>
     <definedName name="ervcdx">#REF!</definedName>
     <definedName name="ezfdscx">#REF!</definedName>
+    <definedName name="FR_0300_000">FR_0300_000!$B$6</definedName>
+    <definedName name="FR_0300_000_m">FR_0300_000!$N$12</definedName>
+    <definedName name="FR_0300_000_q">FR_0300_000!$N$3</definedName>
+    <definedName name="FR_0300_001">FR_0300_001!$B$6</definedName>
+    <definedName name="FR_0300_001_m">FR_0300_001!$N$12</definedName>
+    <definedName name="FR_0300_001_p">FR_0300_001!$I$21</definedName>
+    <definedName name="FR_0300_001_q">FR_0300_001!$N$3</definedName>
     <definedName name="FR_A0300">'FR A0300'!$A$5</definedName>
-    <definedName name="FR_A0300_f">'FR A0300'!$J$104</definedName>
-    <definedName name="FR_A0300_m">'FR A0300'!$N$40</definedName>
+    <definedName name="FR_A0300_001">FR_0300_001!$B$6</definedName>
+    <definedName name="FR_A0300_001_f">FR_0300_001!#REF!</definedName>
+    <definedName name="FR_A0300_001_m">FR_0300_001!$N$12</definedName>
+    <definedName name="FR_A0300_001_p">FR_0300_001!$I$21</definedName>
+    <definedName name="FR_A0300_001_q">FR_0300_001!$N$3</definedName>
+    <definedName name="FR_A0300_001_t">FR_0300_001!#REF!</definedName>
+    <definedName name="FR_A0300_f">'FR A0300'!$J$138</definedName>
+    <definedName name="FR_A0300_m">'FR A0300'!$N$39</definedName>
     <definedName name="FR_A0300_p">'FR A0300'!$E$26</definedName>
     <definedName name="FR_A0300_pa">'FR A0300'!$E$26</definedName>
     <definedName name="FR_A0300_q">'FR A0300'!$N$3</definedName>
-    <definedName name="FR_A0300_t">'FR A0300'!$I$109</definedName>
+    <definedName name="FR_A0300_t">'FR A0300'!$I$143</definedName>
     <definedName name="gbvf">#REF!</definedName>
     <definedName name="gbvfcd">#REF!</definedName>
     <definedName name="gr">#REF!</definedName>
@@ -128,6 +144,7 @@
     <definedName name="hygtrfvcdx">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">BOM!$6:$6</definedName>
     <definedName name="nbtgv">#REF!</definedName>
+    <definedName name="P_N_Base">'FR A0300'!$A$5</definedName>
     <definedName name="process">#REF!</definedName>
     <definedName name="Process_P1">#REF!</definedName>
     <definedName name="Processes" localSheetId="1">#REF!</definedName>
@@ -161,12 +178,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="248">
   <si>
     <t>University</t>
   </si>
@@ -285,19 +301,10 @@
     <t>Fastener</t>
   </si>
   <si>
-    <t>Bolt,Grade 8.8 (SAE)</t>
-  </si>
-  <si>
-    <t>Example : bolt Part 1 on Part 2</t>
-  </si>
-  <si>
     <t>Washer, Grade 8.8 (SAE 5)</t>
   </si>
   <si>
     <t>Nut, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Retaining Ring, External</t>
   </si>
   <si>
     <t>Tooling</t>
@@ -764,9 +771,6 @@
     <t>Welding the Front and Rear Rails Mounts to the frame</t>
   </si>
   <si>
-    <t>PAINT</t>
-  </si>
-  <si>
     <t>Assemble, 1 kg, Loose</t>
   </si>
   <si>
@@ -809,12 +813,6 @@
     <t>Fixing the Accelerator Pedal on the Accelerator Pedal Supports</t>
   </si>
   <si>
-    <t>Inserting the Over-Travel Bold between the Accelerator Supports</t>
-  </si>
-  <si>
-    <t>Fixing the Over-Travel Bold to the Accelerator Supports</t>
-  </si>
-  <si>
     <t>Fixing the Brake Over-Travel Switch to the Brake Over-Travel Switch Support</t>
   </si>
   <si>
@@ -842,12 +840,6 @@
     <t>Ratchet &lt;= 25.4 mm</t>
   </si>
   <si>
-    <t>Positioning the bold through the Master Cylinder Bearings and through the Brake Pedal</t>
-  </si>
-  <si>
-    <t>Fixing the bold to the Master Cylinder Bearings (through the Brake Pedal)</t>
-  </si>
-  <si>
     <t>Positioning the Heel Support on the Pedal Rails</t>
   </si>
   <si>
@@ -857,15 +849,9 @@
     <t>Positioning the Foot Top Support on the Brake Pedal</t>
   </si>
   <si>
-    <t>fixing the Foot Top Support on the Brake Pedal</t>
-  </si>
-  <si>
     <t>Positioning the Foot Top Support on the Accelerator Pedal</t>
   </si>
   <si>
-    <t>fixing the Foot Top Support on the Accelerator Pedal</t>
-  </si>
-  <si>
     <t>Welding the Mount for Distribution T</t>
   </si>
   <si>
@@ -875,16 +861,115 @@
     <t>Welding the Hydraulic Fluid Reservoir Mount</t>
   </si>
   <si>
-    <t>Fixing the Hydraulic Fluid Reservoir to the Hydraulic Fluid Reservoir Mount</t>
-  </si>
-  <si>
-    <t>Positioning the Hydraulic Fluid Reservoir on the Hydraulic Fluid Reservoir</t>
-  </si>
-  <si>
     <t>Positioning the Cable in the Cable Support</t>
   </si>
   <si>
     <t>Fixing the Cable to the Cable Support</t>
+  </si>
+  <si>
+    <t>Aerosol Apply</t>
+  </si>
+  <si>
+    <t>Painting of the Mounts</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Bolt, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>Inserting the Over-Travel Bolt between the Accelerator Supports</t>
+  </si>
+  <si>
+    <t>Fixing the Over-Travel Bolt to the Accelerator Supports</t>
+  </si>
+  <si>
+    <t>Thread Insert</t>
+  </si>
+  <si>
+    <t>Positioning the bolt through the Master Cylinder Bearings and through the Brake Pedal</t>
+  </si>
+  <si>
+    <t>Fixing the bolt to the Master Cylinder Bearings (through the Brake Pedal)</t>
+  </si>
+  <si>
+    <t>VIS A TETE FRAISEE</t>
+  </si>
+  <si>
+    <t>VIS EPAULEE</t>
+  </si>
+  <si>
+    <t>Fixing the Foot Top Support on the Brake and Accelerator Pedals</t>
+  </si>
+  <si>
+    <t>Fixing the Foot Top Support on the Brake Pedal</t>
+  </si>
+  <si>
+    <t>Fixing the Foot Top Support on the Accelerator Pedal</t>
+  </si>
+  <si>
+    <t>Positioning the Hydraulic Fluid Reservoirs on the Hydraulic Fluid Reservoir</t>
+  </si>
+  <si>
+    <t>Fixing the Hydraulic Fluid Reservoirs to the Hydraulic Fluid Reservoir Mount</t>
+  </si>
+  <si>
+    <t>Positioning the Sheath for Cable to Sheath for cable mount</t>
+  </si>
+  <si>
+    <t>Fixing the Sheath for Cable to Sheath for cable mount</t>
+  </si>
+  <si>
+    <t>Mounts welded to the chassis</t>
+  </si>
+  <si>
+    <t>FR_0300_000</t>
+  </si>
+  <si>
+    <t>Rail mounted on the chassis supporting the pedals</t>
+  </si>
+  <si>
+    <t>Aluminum, Normal (per kg)</t>
+  </si>
+  <si>
+    <t>Machining Setup, Change</t>
+  </si>
+  <si>
+    <t>Machining</t>
+  </si>
+  <si>
+    <t>cm^3</t>
+  </si>
+  <si>
+    <t>Horizontal holes</t>
+  </si>
+  <si>
+    <t>Vertical holes</t>
+  </si>
+  <si>
+    <t>Brake pedal</t>
+  </si>
+  <si>
+    <t>FR_A0300_001</t>
+  </si>
+  <si>
+    <t>Branch of the Brake Pedal</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Side and side holes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing part : </t>
+  </si>
+  <si>
+    <t>FR_0300_001</t>
   </si>
 </sst>
 </file>
@@ -898,12 +983,12 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1083,15 +1168,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1156,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1575,14 +1660,42 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,20 +1703,20 @@
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="6">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="6">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1611,7 +1724,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1621,11 +1734,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1692,14 +1805,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1736,7 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1754,24 +1866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1793,12 +1888,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1821,18 +1916,18 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,18 +1949,18 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,7 +1991,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1919,10 +2013,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1937,6 +2027,64 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="39" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="37" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="39" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2020,9 +2168,9 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFF66CC"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF00FFFF"/>
@@ -2045,23 +2193,23 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76147</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142118</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195929</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="dEL_010001">
+        <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83464F1D-D794-408E-93FF-BD52F40B4CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,8 +2225,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="304800"/>
-          <a:ext cx="2971746" cy="4218818"/>
+          <a:off x="441960" y="297180"/>
+          <a:ext cx="7770209" cy="5464415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>264837</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD12A33-7D9E-462F-A387-63451DD3054C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="297180"/>
+          <a:ext cx="8204877" cy="5792070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2416,342 +2614,342 @@
   </sheetPr>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
-        <v>149</v>
+      <c r="A1" s="110" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>81</v>
+      <c r="A3" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
-        <v>112</v>
+      <c r="A10" s="106" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="114"/>
+      <c r="A18" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="106"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="114" t="s">
-        <v>88</v>
+      <c r="A23" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="114" t="s">
-        <v>112</v>
+      <c r="A31" s="106" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="114" t="s">
-        <v>86</v>
+      <c r="A39" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="114" t="s">
-        <v>109</v>
+      <c r="A45" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="114" t="s">
+      <c r="A57" s="109" t="s">
         <v>93</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="114" t="s">
-        <v>97</v>
+      <c r="A63" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="106" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="114" t="s">
-        <v>114</v>
+      <c r="A80" s="106" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="118" t="s">
-        <v>120</v>
+      <c r="A82" s="110" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2768,11 +2966,11 @@
   <dimension ref="A1:O164"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2795,12 +2993,12 @@
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121" t="s">
-        <v>50</v>
+      <c r="B1" s="113" t="s">
+        <v>47</v>
       </c>
       <c r="D1" s="53"/>
       <c r="M1" s="65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N1" s="54"/>
       <c r="O1" s="64" t="e">
@@ -2810,17 +3008,17 @@
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>147</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>144</v>
       </c>
       <c r="C2" s="14"/>
       <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="63">
         <v>2018</v>
@@ -2832,12 +3030,12 @@
       <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="111">
         <v>81</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="48"/>
     </row>
@@ -2849,403 +3047,420 @@
     </row>
     <row r="6" spans="1:15" s="44" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="E6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="F6" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="G6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="H6" s="58" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="N6" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="O6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133" t="str">
+      <c r="A7" s="124"/>
+      <c r="B7" s="125" t="str">
         <f>'FR A0300'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C7" s="134" t="str">
+      <c r="C7" s="126" t="str">
         <f>EL_A0001</f>
         <v>FR A0300</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="135" t="str">
+      <c r="E7" s="126"/>
+      <c r="F7" s="127" t="str">
         <f>'FR A0300'!B4</f>
         <v>Pedal box</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="136">
+      <c r="G7" s="126"/>
+      <c r="H7" s="128">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
-        <v>449.27000000000004</v>
-      </c>
-      <c r="I7" s="137">
+        <v>453.8160477616633</v>
+      </c>
+      <c r="I7" s="129">
         <f>BR_A0001_q</f>
         <v>1</v>
       </c>
-      <c r="J7" s="138">
+      <c r="J7" s="130">
         <f>BR_A0001_m</f>
         <v>406.12</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="130">
         <f>BR_A0001_p</f>
-        <v>37.489999999999995</v>
-      </c>
-      <c r="L7" s="138">
+        <v>39.204999999999991</v>
+      </c>
+      <c r="L7" s="130">
         <f>BR_A0001_f</f>
-        <v>0.66</v>
-      </c>
-      <c r="M7" s="138">
+        <v>4.8243810949966459</v>
+      </c>
+      <c r="M7" s="130">
         <f>BR_A0001_t</f>
-        <v>5</v>
-      </c>
-      <c r="N7" s="139">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N7" s="131">
         <f t="shared" ref="N7:N17" si="1">H7*I7</f>
-        <v>449.27000000000004</v>
-      </c>
-      <c r="O7" s="140"/>
+        <v>453.8160477616633</v>
+      </c>
+      <c r="O7" s="132"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="141"/>
-      <c r="B8" s="142" t="str">
+      <c r="A8" s="133"/>
+      <c r="B8" s="134" t="str">
         <f>'FR A0300'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C8" s="143" t="str">
+      <c r="C8" s="135" t="str">
         <f>EL_01001</f>
-        <v>FR 01001</v>
-      </c>
-      <c r="D8" s="144" t="s">
+        <v>FR_0300_000</v>
+      </c>
+      <c r="D8" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="144" t="str">
+      <c r="E8" s="136" t="str">
         <f>F7</f>
         <v>Pedal box</v>
       </c>
-      <c r="F8" s="145" t="str">
-        <f>'FR Part 1'!B5</f>
-        <v>Part 1</v>
-      </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="146">
+      <c r="F8" s="137" t="str">
+        <f>FR_0300_000!B5</f>
+        <v>Rail</v>
+      </c>
+      <c r="G8" s="136"/>
+      <c r="H8" s="138">
         <f t="shared" si="0"/>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="I8" s="147">
+        <v>3.0255999999999998</v>
+      </c>
+      <c r="I8" s="139">
         <f>BR_A0001_q*BR_01001_q</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="148">
+        <v>2</v>
+      </c>
+      <c r="J8" s="140">
         <f>BR_01001_m</f>
-        <v>1.3309329600000002</v>
-      </c>
-      <c r="K8" s="148">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="K8" s="140">
         <f>BR_01001_p</f>
-        <v>4.6972825</v>
-      </c>
-      <c r="L8" s="148">
-        <f>BR_01001_f</f>
+        <v>2.2696000000000001</v>
+      </c>
+      <c r="L8" s="140">
         <v>0</v>
       </c>
-      <c r="M8" s="148">
-        <f>BR_01001_t</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N8" s="149">
+      <c r="M8" s="140">
+        <v>0</v>
+      </c>
+      <c r="N8" s="141">
         <f t="shared" si="1"/>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="O8" s="150"/>
-    </row>
-    <row r="9" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="142" t="str">
+        <v>6.0511999999999997</v>
+      </c>
+      <c r="O8" s="142"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="133"/>
+      <c r="B9" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144" t="s">
+      <c r="C9" s="136" t="str">
+        <f>FR_0300_001</f>
+        <v>FR_0300_001</v>
+      </c>
+      <c r="D9" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="146">
+      <c r="E9" s="136"/>
+      <c r="F9" s="137" t="str">
+        <f>FR_0300_001!B5</f>
+        <v>Brake pedal</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="138">
+        <f t="shared" si="0"/>
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="I9" s="143">
+        <f>FR_A0300_q*FR_0300_001_q</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="140">
+        <f>FR_0300_001_m</f>
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="K9" s="140">
+        <f>FR_0300_001_p</f>
+        <v>4.548</v>
+      </c>
+      <c r="L9" s="140">
+        <v>0</v>
+      </c>
+      <c r="M9" s="140">
+        <v>0</v>
+      </c>
+      <c r="N9" s="141">
+        <f t="shared" si="1"/>
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="O9" s="142"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="133"/>
+      <c r="B10" s="134" t="str">
+        <f>'FR A0300'!$B$3</f>
+        <v>Frame and Body</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="136"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="151"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="149">
+      <c r="I10" s="143"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="150"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="141"/>
-      <c r="B10" s="142" t="str">
+      <c r="O10" s="142"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="144"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="146">
+      <c r="E11" s="136"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="151"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="149">
+      <c r="I11" s="143"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="150"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
-      <c r="B11" s="142" t="str">
+      <c r="O11" s="142"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="133"/>
+      <c r="B12" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="146">
+      <c r="E12" s="136"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="151"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="149">
+      <c r="I12" s="143"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="150"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
-      <c r="B12" s="142" t="str">
+      <c r="O12" s="142"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="133"/>
+      <c r="B13" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144" t="s">
+      <c r="C13" s="136"/>
+      <c r="D13" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="144"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="146">
+      <c r="E13" s="136"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="149">
+      <c r="I13" s="143"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="150"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
-      <c r="B13" s="142" t="str">
+      <c r="O13" s="142"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="133"/>
+      <c r="B14" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="144"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="146">
+      <c r="E14" s="136"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="149">
+      <c r="I14" s="143"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="150"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="141"/>
-      <c r="B14" s="142" t="str">
+      <c r="O14" s="142"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="146">
+      <c r="E15" s="136"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="149">
+      <c r="I15" s="143"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="150"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="142" t="str">
+      <c r="O15" s="142"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="146">
+      <c r="E16" s="136"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="149">
+      <c r="I16" s="143"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="150"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="142" t="str">
+      <c r="O16" s="142"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="133"/>
+      <c r="B17" s="134" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144" t="s">
+      <c r="C17" s="136"/>
+      <c r="D17" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="146">
+      <c r="E17" s="136"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="151"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="149">
+      <c r="I17" s="143"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="141">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="150"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="141"/>
-      <c r="B17" s="142" t="str">
-        <f>'FR A0300'!$B$3</f>
-        <v>Frame and Body</v>
-      </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="144"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="146">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="149">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="150"/>
+      <c r="O17" s="142"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -3257,30 +3472,30 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="123">
+      <c r="J18" s="115">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
-        <v>407.45093295999999</v>
-      </c>
-      <c r="K18" s="123">
+        <v>408.19900000000001</v>
+      </c>
+      <c r="K18" s="115">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
-        <v>42.187282499999995</v>
-      </c>
-      <c r="L18" s="123">
+        <v>48.292199999999994</v>
+      </c>
+      <c r="L18" s="115">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
-        <v>0.66</v>
-      </c>
-      <c r="M18" s="123">
+        <v>4.8243810949966459</v>
+      </c>
+      <c r="M18" s="115">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="N18" s="123">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N18" s="115">
         <f>SUM(N7:N17)</f>
-        <v>456.13154879333337</v>
+        <v>464.9822477616633</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -5508,6 +5723,7 @@
   <hyperlinks>
     <hyperlink ref="F7" location="BR_A0001" display="BR_A0001"/>
     <hyperlink ref="F8" location="BR_01001" display="BR_01001"/>
+    <hyperlink ref="F9" location="FR_0300_001!A1" display="FR_0300_001!A1"/>
   </hyperlinks>
   <pageMargins left="0.41" right="0.22" top="0.72" bottom="0.57999999999999996" header="0.5" footer="0.26"/>
   <pageSetup scale="61" fitToHeight="99" orientation="landscape" r:id="rId1"/>
@@ -5524,16 +5740,16 @@
     <tabColor rgb="FFFF66CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
     <col min="3" max="3" width="55.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625"/>
     <col min="5" max="5" width="13.109375"/>
@@ -5565,43 +5781,43 @@
       <c r="O1" s="71"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="126" t="s">
+      <c r="J2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="107">
+      <c r="K2" s="99">
         <v>81</v>
       </c>
       <c r="L2" s="66"/>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="122">
+      <c r="N2" s="114">
         <f>FR_A0300_pa+FR_A0300_m+FR_A0300_p+FR_A0300_f+FR_A0300_t</f>
-        <v>439.22619517333334</v>
+        <v>436.94344776166332</v>
       </c>
       <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -5613,20 +5829,20 @@
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="66"/>
-      <c r="M3" s="126" t="s">
+      <c r="M3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="101">
+      <c r="N3" s="98">
         <v>1</v>
       </c>
       <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="118" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -5635,7 +5851,7 @@
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="121" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="66"/>
@@ -5645,11 +5861,11 @@
       <c r="O4" s="72"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="118" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -5658,22 +5874,22 @@
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="121" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
-      <c r="M5" s="126" t="s">
+      <c r="M5" s="118" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="84">
         <f>N2*N3</f>
-        <v>439.22619517333334</v>
+        <v>436.94344776166332</v>
       </c>
       <c r="O5" s="72"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5686,7 +5902,7 @@
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="121" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66"/>
@@ -5696,11 +5912,11 @@
       <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="118" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" s="66"/>
       <c r="D7" s="66"/>
@@ -5734,19 +5950,19 @@
       <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="118" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="66"/>
@@ -5764,19 +5980,20 @@
       <c r="A10" s="20">
         <v>10</v>
       </c>
-      <c r="B10" s="168" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="163">
-        <f>'FR Part 1'!N2</f>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="D10" s="113">
+      <c r="B10" s="159" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="155">
+        <f>FR_0300_000!N2</f>
+        <v>3.0255999999999998</v>
+      </c>
+      <c r="D10" s="105">
+        <f>FR_0300_000_q</f>
         <v>2</v>
       </c>
       <c r="E10" s="84">
         <f>C10*D10</f>
-        <v>13.723097586666666</v>
+        <v>6.0511999999999997</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -5793,16 +6010,20 @@
       <c r="A11" s="20">
         <v>20</v>
       </c>
-      <c r="B11" s="169" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="163"/>
+      <c r="B11" s="210" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="155">
+        <f>FR_0300_001!N2</f>
+        <v>5.1150000000000002</v>
+      </c>
       <c r="D11" s="83">
+        <f>FR_A0300_001_q</f>
         <v>1</v>
       </c>
       <c r="E11" s="84">
         <f t="shared" ref="E11:E25" si="0">C11*D11</f>
-        <v>0</v>
+        <v>5.1150000000000002</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
@@ -5819,13 +6040,11 @@
       <c r="A12" s="20">
         <v>30</v>
       </c>
-      <c r="B12" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="83">
-        <v>1</v>
-      </c>
+      <c r="B12" s="160" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="155"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5845,13 +6064,11 @@
       <c r="A13" s="20">
         <v>40</v>
       </c>
-      <c r="B13" s="170" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="83">
-        <v>2</v>
-      </c>
+      <c r="B13" s="161" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="155"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5871,13 +6088,11 @@
       <c r="A14" s="20">
         <v>50</v>
       </c>
-      <c r="B14" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="83">
-        <v>2</v>
-      </c>
+      <c r="B14" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="155"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5897,13 +6112,11 @@
       <c r="A15" s="20">
         <v>60</v>
       </c>
-      <c r="B15" s="170" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="83">
-        <v>2</v>
-      </c>
+      <c r="B15" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5923,13 +6136,11 @@
       <c r="A16" s="20">
         <v>70</v>
       </c>
-      <c r="B16" s="170" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="83">
-        <v>1</v>
-      </c>
+      <c r="B16" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="155"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5949,13 +6160,11 @@
       <c r="A17" s="20">
         <v>80</v>
       </c>
-      <c r="B17" s="170" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="83">
-        <v>2</v>
-      </c>
+      <c r="B17" s="161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="155"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5975,13 +6184,11 @@
       <c r="A18" s="20">
         <v>90</v>
       </c>
-      <c r="B18" s="170" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="83">
-        <v>1</v>
-      </c>
+      <c r="B18" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="155"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6001,13 +6208,11 @@
       <c r="A19" s="20">
         <v>100</v>
       </c>
-      <c r="B19" s="170" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="83">
-        <v>2</v>
-      </c>
+      <c r="B19" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="155"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6027,13 +6232,11 @@
       <c r="A20" s="20">
         <v>110</v>
       </c>
-      <c r="B20" s="170" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="83">
-        <v>2</v>
-      </c>
+      <c r="B20" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="155"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6053,13 +6256,11 @@
       <c r="A21" s="20">
         <v>120</v>
       </c>
-      <c r="B21" s="170" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="83">
-        <v>1</v>
-      </c>
+      <c r="B21" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="155"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6079,13 +6280,11 @@
       <c r="A22" s="20">
         <v>130</v>
       </c>
-      <c r="B22" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="83">
-        <v>4</v>
-      </c>
+      <c r="B22" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="155"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6105,13 +6304,11 @@
       <c r="A23" s="20">
         <v>140</v>
       </c>
-      <c r="B23" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="83">
-        <v>4</v>
-      </c>
+      <c r="B23" s="161" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="155"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6131,13 +6328,11 @@
       <c r="A24" s="20">
         <v>150</v>
       </c>
-      <c r="B24" s="170" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="83">
-        <v>1</v>
-      </c>
+      <c r="B24" s="161" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="155"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6157,13 +6352,11 @@
       <c r="A25" s="20">
         <v>160</v>
       </c>
-      <c r="B25" s="170" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="83">
-        <v>1</v>
-      </c>
+      <c r="B25" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="155"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6181,14 +6374,14 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="73"/>
-      <c r="B26" s="167"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="66"/>
-      <c r="D26" s="127" t="s">
+      <c r="D26" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="120">
         <f>SUM(E10:E25)</f>
-        <v>13.723097586666666</v>
+        <v>11.1662</v>
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
@@ -6203,7 +6396,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="73"/>
-      <c r="B27" s="172"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -6219,59 +6412,59 @@
       <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="174" t="s">
+      <c r="C28" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="171" t="s">
+      <c r="D28" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="126" t="s">
+      <c r="E28" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="126" t="s">
+      <c r="F28" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="126" t="s">
+      <c r="H28" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="126" t="s">
+      <c r="I28" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="126" t="s">
+      <c r="J28" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="126" t="s">
+      <c r="K28" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="126" t="s">
+      <c r="L28" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="126" t="s">
+      <c r="M28" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="126" t="s">
+      <c r="N28" s="118" t="s">
         <v>18</v>
       </c>
       <c r="O28" s="72"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="173">
+      <c r="A29" s="164">
         <v>10</v>
       </c>
-      <c r="B29" s="173" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="177" t="s">
-        <v>160</v>
+      <c r="B29" s="164" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="168" t="s">
+        <v>157</v>
       </c>
       <c r="D29" s="84">
         <v>174.5</v>
@@ -6279,12 +6472,12 @@
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
       <c r="G29" s="83"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86">
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85">
         <v>2</v>
       </c>
       <c r="N29" s="84">
@@ -6297,20 +6490,20 @@
       <c r="A30" s="83">
         <v>20</v>
       </c>
-      <c r="B30" s="170" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="89"/>
+      <c r="B30" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="88"/>
       <c r="D30" s="84"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="95"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="94"/>
       <c r="N30" s="84">
         <f t="shared" ref="N30:N38" si="1">M30*D30</f>
         <v>0</v>
@@ -6318,23 +6511,23 @@
       <c r="O30" s="77"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="173">
+      <c r="A31" s="164">
         <v>30</v>
       </c>
-      <c r="B31" s="170" t="s">
-        <v>163</v>
+      <c r="B31" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="C31" s="83"/>
       <c r="D31" s="84"/>
       <c r="E31" s="83"/>
       <c r="F31" s="83"/>
       <c r="G31" s="83"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="86"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="85"/>
       <c r="N31" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6345,11 +6538,11 @@
       <c r="A32" s="83">
         <v>40</v>
       </c>
-      <c r="B32" s="170" t="s">
-        <v>175</v>
+      <c r="B32" s="161" t="s">
+        <v>172</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D32" s="84">
         <v>30</v>
@@ -6357,12 +6550,12 @@
       <c r="E32" s="83"/>
       <c r="F32" s="83"/>
       <c r="G32" s="83"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="86">
+      <c r="H32" s="85"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="85">
         <v>1</v>
       </c>
       <c r="N32" s="84">
@@ -6371,15 +6564,15 @@
       </c>
       <c r="O32" s="72"/>
     </row>
-    <row r="33" spans="1:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="173">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="164">
         <v>50</v>
       </c>
-      <c r="B33" s="176" t="s">
-        <v>177</v>
+      <c r="B33" s="167" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D33" s="84">
         <v>5</v>
@@ -6387,12 +6580,12 @@
       <c r="E33" s="83"/>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="86">
+      <c r="H33" s="85"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="85">
         <v>2</v>
       </c>
       <c r="N33" s="84">
@@ -6402,14 +6595,14 @@
       <c r="O33" s="72"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="173">
+      <c r="A34" s="164">
         <v>60</v>
       </c>
-      <c r="B34" s="170" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="164" t="s">
-        <v>176</v>
+      <c r="B34" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="156" t="s">
+        <v>173</v>
       </c>
       <c r="D34" s="84">
         <v>4.28</v>
@@ -6423,14 +6616,14 @@
       <c r="G34" s="83">
         <v>10</v>
       </c>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="86">
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="85">
         <v>4</v>
       </c>
       <c r="N34" s="84">
@@ -6443,18 +6636,18 @@
       <c r="A35" s="83">
         <v>70</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="164"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="156"/>
       <c r="D35" s="84"/>
       <c r="E35" s="83"/>
       <c r="F35" s="83"/>
       <c r="G35" s="83"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="86"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="85"/>
       <c r="N35" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6462,21 +6655,21 @@
       <c r="O35" s="72"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="173">
+      <c r="A36" s="164">
         <v>80</v>
       </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="164"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="84"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="86"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="85"/>
       <c r="N36" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6487,18 +6680,18 @@
       <c r="A37" s="83">
         <v>90</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="164"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="156"/>
       <c r="D37" s="84"/>
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
       <c r="G37" s="83"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="86"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="85"/>
       <c r="N37" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6506,21 +6699,21 @@
       <c r="O37" s="72"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="173">
+      <c r="A38" s="164">
         <v>100</v>
       </c>
       <c r="B38" s="30"/>
-      <c r="C38" s="164"/>
+      <c r="C38" s="156"/>
       <c r="D38" s="84"/>
       <c r="E38" s="83"/>
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
       <c r="N38" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6528,126 +6721,137 @@
       <c r="O38" s="72"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="165" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="84">
-        <f>M39*D39</f>
-        <v>0</v>
+      <c r="A39" s="78"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="120">
+        <f>SUM(N29:N38)</f>
+        <v>406.12</v>
       </c>
       <c r="O39" s="72"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="126" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="72"/>
+    </row>
+    <row r="41" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="128">
-        <f>SUM(N29:N39)</f>
-        <v>406.12</v>
-      </c>
-      <c r="O40" s="72"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="73"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="72"/>
-    </row>
-    <row r="42" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="126" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="126" t="s">
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="79"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="83">
+        <v>10</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="84">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="96">
+        <f>2.7*8+1.8*8</f>
         <v>36</v>
       </c>
-      <c r="I42" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="79"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="84">
+        <f t="shared" ref="I42:I93" si="2">IF(H42="",D42*F42,D42*F42*H42)</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="72"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="83">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D43" s="84">
         <v>0.15</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="97">
-        <f>2.7*8+1.8*8</f>
-        <v>36</v>
-      </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
+        <v>55</v>
+      </c>
+      <c r="F43" s="96">
+        <f>2*2.3</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="84">
-        <f t="shared" ref="I43:I93" si="2">IF(H43="",D43*F43,D43*F43*H43)</f>
-        <v>5.3999999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.69</v>
       </c>
       <c r="J43" s="66"/>
       <c r="K43" s="66"/>
@@ -6657,28 +6861,30 @@
       <c r="O43" s="72"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
+      <c r="A44" s="83">
+        <v>30</v>
+      </c>
       <c r="B44" s="83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D44" s="84">
         <v>0.15</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="97">
-        <f>2*2.3</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
+        <v>55</v>
+      </c>
+      <c r="F44" s="96">
+        <f>2*2.8</f>
+        <v>5.6</v>
+      </c>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="84">
         <f t="shared" si="2"/>
-        <v>0.69</v>
+        <v>0.84</v>
       </c>
       <c r="J44" s="66"/>
       <c r="K44" s="66"/>
@@ -6688,28 +6894,30 @@
       <c r="O44" s="72"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
+      <c r="A45" s="83">
+        <v>40</v>
+      </c>
       <c r="B45" s="83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D45" s="84">
         <v>0.15</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="97">
-        <f>2*2.8</f>
-        <v>5.6</v>
-      </c>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
+        <v>55</v>
+      </c>
+      <c r="F45" s="96">
+        <f>2*2.1</f>
+        <v>4.2</v>
+      </c>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="84">
         <f t="shared" si="2"/>
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="J45" s="66"/>
       <c r="K45" s="66"/>
@@ -6719,28 +6927,30 @@
       <c r="O45" s="72"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83" t="s">
-        <v>182</v>
+      <c r="A46" s="83">
+        <v>50</v>
+      </c>
+      <c r="B46" s="177" t="s">
+        <v>213</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D46" s="84">
-        <v>0.15</v>
-      </c>
-      <c r="E46" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="97">
-        <f>2*2.1</f>
-        <v>4.2</v>
-      </c>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
+        <v>5.25</v>
+      </c>
+      <c r="E46" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="96">
+        <f>0.02*11</f>
+        <v>0.22</v>
+      </c>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
       <c r="I46" s="84">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>1.155</v>
       </c>
       <c r="J46" s="66"/>
       <c r="K46" s="66"/>
@@ -6751,20 +6961,26 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="83">
-        <v>20</v>
-      </c>
-      <c r="B47" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="97"/>
+        <v>60</v>
+      </c>
+      <c r="B47" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="84">
+        <v>0.06</v>
+      </c>
+      <c r="E47" s="83"/>
+      <c r="F47" s="96">
+        <v>2</v>
+      </c>
       <c r="G47" s="83"/>
       <c r="H47" s="83"/>
       <c r="I47" s="84">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J47" s="66"/>
       <c r="K47" s="66"/>
@@ -6775,26 +6991,26 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="83">
-        <v>30</v>
-      </c>
-      <c r="B48" s="98" t="s">
-        <v>185</v>
+        <v>70</v>
+      </c>
+      <c r="B48" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E48" s="83"/>
-      <c r="F48" s="97">
-        <v>2</v>
+      <c r="F48" s="96">
+        <v>4</v>
       </c>
       <c r="G48" s="83"/>
       <c r="H48" s="83"/>
       <c r="I48" s="84">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>3</v>
       </c>
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
@@ -6804,25 +7020,27 @@
       <c r="O48" s="72"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="98" t="s">
-        <v>209</v>
+      <c r="A49" s="83">
+        <v>80</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D49" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E49" s="83"/>
-      <c r="F49" s="97">
+      <c r="F49" s="96">
         <v>4</v>
       </c>
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
       <c r="I49" s="84">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" s="66"/>
       <c r="K49" s="66"/>
@@ -6832,25 +7050,27 @@
       <c r="O49" s="72"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="98" t="s">
-        <v>189</v>
+      <c r="A50" s="83">
+        <v>90</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>181</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E50" s="83"/>
-      <c r="F50" s="97">
-        <v>4</v>
+      <c r="F50" s="96">
+        <v>2</v>
       </c>
       <c r="G50" s="83"/>
       <c r="H50" s="83"/>
       <c r="I50" s="84">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="J50" s="66"/>
       <c r="K50" s="66"/>
@@ -6860,25 +7080,27 @@
       <c r="O50" s="72"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="98" t="s">
-        <v>185</v>
+      <c r="A51" s="83">
+        <v>100</v>
+      </c>
+      <c r="B51" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D51" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E51" s="83"/>
-      <c r="F51" s="97">
+      <c r="F51" s="96">
         <v>2</v>
       </c>
       <c r="G51" s="83"/>
       <c r="H51" s="83"/>
       <c r="I51" s="84">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="J51" s="66"/>
       <c r="K51" s="66"/>
@@ -6888,25 +7110,27 @@
       <c r="O51" s="72"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="98" t="s">
-        <v>209</v>
+      <c r="A52" s="83">
+        <v>110</v>
+      </c>
+      <c r="B52" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C52" s="83" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D52" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E52" s="83"/>
-      <c r="F52" s="97">
+      <c r="F52" s="96">
         <v>2</v>
       </c>
       <c r="G52" s="83"/>
       <c r="H52" s="83"/>
       <c r="I52" s="84">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J52" s="66"/>
       <c r="K52" s="66"/>
@@ -6916,25 +7140,27 @@
       <c r="O52" s="72"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="98" t="s">
-        <v>189</v>
+      <c r="A53" s="83">
+        <v>120</v>
+      </c>
+      <c r="B53" s="97" t="s">
+        <v>181</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D53" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E53" s="83"/>
-      <c r="F53" s="97">
+      <c r="F53" s="96">
         <v>2</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="83"/>
       <c r="I53" s="84">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="J53" s="66"/>
       <c r="K53" s="66"/>
@@ -6944,25 +7170,27 @@
       <c r="O53" s="72"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="83"/>
-      <c r="B54" s="98" t="s">
-        <v>185</v>
+      <c r="A54" s="83">
+        <v>130</v>
+      </c>
+      <c r="B54" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C54" s="83" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D54" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E54" s="83"/>
-      <c r="F54" s="97">
+      <c r="F54" s="96">
         <v>2</v>
       </c>
       <c r="G54" s="83"/>
       <c r="H54" s="83"/>
       <c r="I54" s="84">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="J54" s="66"/>
       <c r="K54" s="66"/>
@@ -6972,25 +7200,27 @@
       <c r="O54" s="72"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
-      <c r="B55" s="98" t="s">
-        <v>209</v>
+      <c r="A55" s="83">
+        <v>140</v>
+      </c>
+      <c r="B55" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C55" s="83" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D55" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E55" s="83"/>
-      <c r="F55" s="97">
+      <c r="F55" s="96">
         <v>2</v>
       </c>
       <c r="G55" s="83"/>
       <c r="H55" s="83"/>
       <c r="I55" s="84">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J55" s="66"/>
       <c r="K55" s="66"/>
@@ -7000,25 +7230,27 @@
       <c r="O55" s="72"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
-      <c r="B56" s="98" t="s">
-        <v>189</v>
+      <c r="A56" s="83">
+        <v>150</v>
+      </c>
+      <c r="B56" s="97" t="s">
+        <v>181</v>
       </c>
       <c r="C56" s="83" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D56" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E56" s="83"/>
-      <c r="F56" s="97">
-        <v>2</v>
+      <c r="F56" s="96">
+        <v>4</v>
       </c>
       <c r="G56" s="83"/>
       <c r="H56" s="83"/>
       <c r="I56" s="84">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="J56" s="66"/>
       <c r="K56" s="66"/>
@@ -7028,25 +7260,27 @@
       <c r="O56" s="72"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="83"/>
-      <c r="B57" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="84">
+      <c r="A57" s="83">
+        <v>160</v>
+      </c>
+      <c r="B57" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="166" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="170">
         <v>0.06</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="97">
-        <v>4</v>
-      </c>
-      <c r="G57" s="83"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="171">
+        <v>1</v>
+      </c>
+      <c r="G57" s="166"/>
       <c r="H57" s="83"/>
       <c r="I57" s="84">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="J57" s="66"/>
       <c r="K57" s="66"/>
@@ -7056,25 +7290,27 @@
       <c r="O57" s="72"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="83"/>
-      <c r="B58" s="180" t="s">
-        <v>185</v>
+      <c r="A58" s="83">
+        <v>170</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="C58" s="175" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="181">
-        <v>0.06</v>
-      </c>
-      <c r="E58" s="175"/>
-      <c r="F58" s="182">
+        <v>194</v>
+      </c>
+      <c r="D58" s="170">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30">
         <v>1</v>
       </c>
-      <c r="G58" s="175"/>
-      <c r="H58" s="83"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="156"/>
       <c r="I58" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J58" s="66"/>
       <c r="K58" s="66"/>
@@ -7084,25 +7320,27 @@
       <c r="O58" s="72"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="179"/>
+      <c r="A59" s="83">
+        <v>180</v>
+      </c>
       <c r="B59" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="186" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" s="181">
-        <v>0.75</v>
+        <v>185</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="170">
+        <v>0.25</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="30">
         <v>1</v>
       </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="164"/>
+      <c r="H59" s="156"/>
       <c r="I59" s="84">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
@@ -7112,25 +7350,27 @@
       <c r="O59" s="72"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="179"/>
-      <c r="B60" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="181">
-        <v>0.25</v>
-      </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30">
+      <c r="A60" s="83">
+        <v>190</v>
+      </c>
+      <c r="B60" s="172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="164" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="173">
+        <v>0.06</v>
+      </c>
+      <c r="E60" s="164"/>
+      <c r="F60" s="174">
         <v>1</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="83"/>
       <c r="I60" s="84">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
@@ -7140,25 +7380,27 @@
       <c r="O60" s="72"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
-      <c r="B61" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="173" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="184">
-        <v>0.06</v>
-      </c>
-      <c r="E61" s="173"/>
-      <c r="F61" s="185">
+      <c r="A61" s="83">
+        <v>200</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="E61" s="83"/>
+      <c r="F61" s="96">
         <v>1</v>
       </c>
-      <c r="G61" s="173"/>
+      <c r="G61" s="83"/>
       <c r="H61" s="83"/>
       <c r="I61" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
@@ -7168,25 +7410,27 @@
       <c r="O61" s="72"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="83"/>
-      <c r="B62" s="98" t="s">
-        <v>209</v>
+      <c r="A62" s="83">
+        <v>210</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C62" s="83" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D62" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E62" s="83"/>
-      <c r="F62" s="97">
+      <c r="F62" s="96">
         <v>1</v>
       </c>
       <c r="G62" s="83"/>
       <c r="H62" s="83"/>
       <c r="I62" s="84">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="J62" s="66"/>
       <c r="K62" s="66"/>
@@ -7196,25 +7440,27 @@
       <c r="O62" s="72"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
-      <c r="B63" s="98" t="s">
-        <v>189</v>
+      <c r="A63" s="83">
+        <v>220</v>
+      </c>
+      <c r="B63" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D63" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E63" s="83"/>
-      <c r="F63" s="97">
+      <c r="F63" s="96">
         <v>1</v>
       </c>
       <c r="G63" s="83"/>
       <c r="H63" s="83"/>
       <c r="I63" s="84">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="J63" s="66"/>
       <c r="K63" s="66"/>
@@ -7224,25 +7470,27 @@
       <c r="O63" s="72"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
-      <c r="B64" s="183" t="s">
-        <v>185</v>
+      <c r="A64" s="83">
+        <v>230</v>
+      </c>
+      <c r="B64" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D64" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E64" s="83"/>
-      <c r="F64" s="97">
-        <v>1</v>
+      <c r="F64" s="96">
+        <v>2</v>
       </c>
       <c r="G64" s="83"/>
       <c r="H64" s="83"/>
       <c r="I64" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>1.5</v>
       </c>
       <c r="J64" s="66"/>
       <c r="K64" s="66"/>
@@ -7252,25 +7500,27 @@
       <c r="O64" s="72"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
-      <c r="B65" s="98" t="s">
-        <v>209</v>
+      <c r="A65" s="83">
+        <v>240</v>
+      </c>
+      <c r="B65" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D65" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E65" s="83"/>
-      <c r="F65" s="97">
+      <c r="F65" s="96">
         <v>2</v>
       </c>
       <c r="G65" s="83"/>
       <c r="H65" s="83"/>
       <c r="I65" s="84">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J65" s="66"/>
       <c r="K65" s="66"/>
@@ -7280,25 +7530,27 @@
       <c r="O65" s="72"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="83"/>
-      <c r="B66" s="98" t="s">
-        <v>189</v>
+      <c r="A66" s="83">
+        <v>250</v>
+      </c>
+      <c r="B66" s="176" t="s">
+        <v>201</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D66" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E66" s="83"/>
-      <c r="F66" s="97">
-        <v>2</v>
+      <c r="F66" s="96">
+        <v>1</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="83"/>
       <c r="I66" s="84">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="J66" s="66"/>
       <c r="K66" s="66"/>
@@ -7308,18 +7560,20 @@
       <c r="O66" s="72"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="83"/>
-      <c r="B67" s="187" t="s">
-        <v>207</v>
+      <c r="A67" s="83">
+        <v>260</v>
+      </c>
+      <c r="B67" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D67" s="84">
         <v>0.06</v>
       </c>
       <c r="E67" s="83"/>
-      <c r="F67" s="97">
+      <c r="F67" s="96">
         <v>1</v>
       </c>
       <c r="G67" s="83"/>
@@ -7336,25 +7590,27 @@
       <c r="O67" s="72"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="83"/>
-      <c r="B68" s="183" t="s">
-        <v>185</v>
+      <c r="A68" s="83">
+        <v>270</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C68" s="83" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D68" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E68" s="83"/>
-      <c r="F68" s="97">
+      <c r="F68" s="96">
         <v>1</v>
       </c>
       <c r="G68" s="83"/>
       <c r="H68" s="83"/>
       <c r="I68" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J68" s="66"/>
       <c r="K68" s="66"/>
@@ -7364,25 +7620,27 @@
       <c r="O68" s="72"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="83"/>
-      <c r="B69" s="98" t="s">
-        <v>209</v>
+      <c r="A69" s="83">
+        <v>280</v>
+      </c>
+      <c r="B69" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D69" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E69" s="83"/>
-      <c r="F69" s="97">
+      <c r="F69" s="96">
         <v>1</v>
       </c>
       <c r="G69" s="83"/>
       <c r="H69" s="83"/>
       <c r="I69" s="84">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="J69" s="66"/>
       <c r="K69" s="66"/>
@@ -7391,54 +7649,58 @@
       <c r="N69" s="66"/>
       <c r="O69" s="72"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="83"/>
-      <c r="B70" s="98" t="s">
-        <v>189</v>
+    <row r="70" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="83">
+        <v>290</v>
+      </c>
+      <c r="B70" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D70" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E70" s="83"/>
-      <c r="F70" s="97">
+      <c r="F70" s="96">
         <v>1</v>
       </c>
       <c r="G70" s="83"/>
       <c r="H70" s="83"/>
       <c r="I70" s="84">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="72"/>
+        <v>0.06</v>
+      </c>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="76"/>
     </row>
     <row r="71" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="83"/>
-      <c r="B71" s="183" t="s">
-        <v>185</v>
+      <c r="A71" s="83">
+        <v>300</v>
+      </c>
+      <c r="B71" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D71" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E71" s="83"/>
-      <c r="F71" s="97">
+      <c r="F71" s="96">
         <v>1</v>
       </c>
       <c r="G71" s="83"/>
       <c r="H71" s="83"/>
       <c r="I71" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J71" s="67"/>
       <c r="K71" s="67"/>
@@ -7448,25 +7710,27 @@
       <c r="O71" s="76"/>
     </row>
     <row r="72" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="83"/>
-      <c r="B72" s="98" t="s">
-        <v>209</v>
+      <c r="A72" s="83">
+        <v>310</v>
+      </c>
+      <c r="B72" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D72" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E72" s="83"/>
-      <c r="F72" s="97">
+      <c r="F72" s="96">
         <v>1</v>
       </c>
       <c r="G72" s="83"/>
       <c r="H72" s="83"/>
       <c r="I72" s="84">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="J72" s="67"/>
       <c r="K72" s="67"/>
@@ -7476,25 +7740,27 @@
       <c r="O72" s="76"/>
     </row>
     <row r="73" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="83"/>
-      <c r="B73" s="98" t="s">
-        <v>189</v>
+      <c r="A73" s="83">
+        <v>320</v>
+      </c>
+      <c r="B73" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D73" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E73" s="83"/>
-      <c r="F73" s="97">
+      <c r="F73" s="96">
         <v>1</v>
       </c>
       <c r="G73" s="83"/>
       <c r="H73" s="83"/>
       <c r="I73" s="84">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="J73" s="67"/>
       <c r="K73" s="67"/>
@@ -7504,25 +7770,27 @@
       <c r="O73" s="76"/>
     </row>
     <row r="74" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="83"/>
-      <c r="B74" s="183" t="s">
-        <v>185</v>
+      <c r="A74" s="83">
+        <v>330</v>
+      </c>
+      <c r="B74" s="176" t="s">
+        <v>201</v>
       </c>
       <c r="C74" s="83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D74" s="84">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="E74" s="83"/>
-      <c r="F74" s="97">
-        <v>1</v>
+      <c r="F74" s="96">
+        <v>2</v>
       </c>
       <c r="G74" s="83"/>
       <c r="H74" s="83"/>
       <c r="I74" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="J74" s="67"/>
       <c r="K74" s="67"/>
@@ -7532,25 +7800,27 @@
       <c r="O74" s="76"/>
     </row>
     <row r="75" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="83"/>
-      <c r="B75" s="187" t="s">
-        <v>207</v>
+      <c r="A75" s="83">
+        <v>340</v>
+      </c>
+      <c r="B75" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C75" s="83" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D75" s="84">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="E75" s="83"/>
-      <c r="F75" s="97">
-        <v>2</v>
+      <c r="F75" s="96">
+        <v>1</v>
       </c>
       <c r="G75" s="83"/>
       <c r="H75" s="83"/>
       <c r="I75" s="84">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="J75" s="67"/>
       <c r="K75" s="67"/>
@@ -7560,25 +7830,27 @@
       <c r="O75" s="76"/>
     </row>
     <row r="76" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="83"/>
-      <c r="B76" s="183" t="s">
-        <v>185</v>
+      <c r="A76" s="83">
+        <v>350</v>
+      </c>
+      <c r="B76" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C76" s="83" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D76" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E76" s="83"/>
-      <c r="F76" s="97">
+      <c r="F76" s="96">
         <v>1</v>
       </c>
       <c r="G76" s="83"/>
       <c r="H76" s="83"/>
       <c r="I76" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J76" s="67"/>
       <c r="K76" s="67"/>
@@ -7588,25 +7860,27 @@
       <c r="O76" s="76"/>
     </row>
     <row r="77" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
-      <c r="B77" s="98" t="s">
-        <v>209</v>
+      <c r="A77" s="83">
+        <v>360</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C77" s="83" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D77" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E77" s="83"/>
-      <c r="F77" s="97">
+      <c r="F77" s="96">
         <v>1</v>
       </c>
       <c r="G77" s="83"/>
       <c r="H77" s="83"/>
       <c r="I77" s="84">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="J77" s="67"/>
       <c r="K77" s="67"/>
@@ -7616,25 +7890,27 @@
       <c r="O77" s="76"/>
     </row>
     <row r="78" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="83"/>
-      <c r="B78" s="98" t="s">
-        <v>189</v>
+      <c r="A78" s="83">
+        <v>370</v>
+      </c>
+      <c r="B78" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C78" s="83" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D78" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E78" s="83"/>
-      <c r="F78" s="97">
-        <v>1</v>
+      <c r="F78" s="96">
+        <v>4</v>
       </c>
       <c r="G78" s="83"/>
       <c r="H78" s="83"/>
       <c r="I78" s="84">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J78" s="67"/>
       <c r="K78" s="67"/>
@@ -7644,25 +7920,27 @@
       <c r="O78" s="76"/>
     </row>
     <row r="79" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="83"/>
-      <c r="B79" s="183" t="s">
-        <v>185</v>
+      <c r="A79" s="83">
+        <v>380</v>
+      </c>
+      <c r="B79" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C79" s="83" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D79" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E79" s="83"/>
-      <c r="F79" s="97">
+      <c r="F79" s="96">
         <v>4</v>
       </c>
       <c r="G79" s="83"/>
       <c r="H79" s="83"/>
       <c r="I79" s="84">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>3</v>
       </c>
       <c r="J79" s="67"/>
       <c r="K79" s="67"/>
@@ -7672,25 +7950,27 @@
       <c r="O79" s="76"/>
     </row>
     <row r="80" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="83"/>
-      <c r="B80" s="98" t="s">
-        <v>209</v>
+      <c r="A80" s="83">
+        <v>390</v>
+      </c>
+      <c r="B80" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C80" s="83" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D80" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E80" s="83"/>
-      <c r="F80" s="97">
+      <c r="F80" s="96">
         <v>4</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="83"/>
       <c r="I80" s="84">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" s="67"/>
       <c r="K80" s="67"/>
@@ -7700,25 +7980,27 @@
       <c r="O80" s="76"/>
     </row>
     <row r="81" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="83"/>
-      <c r="B81" s="98" t="s">
-        <v>189</v>
+      <c r="A81" s="83">
+        <v>400</v>
+      </c>
+      <c r="B81" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C81" s="83" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D81" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E81" s="83"/>
-      <c r="F81" s="97">
-        <v>4</v>
+      <c r="F81" s="96">
+        <v>2</v>
       </c>
       <c r="G81" s="83"/>
       <c r="H81" s="83"/>
       <c r="I81" s="84">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="J81" s="67"/>
       <c r="K81" s="67"/>
@@ -7728,25 +8010,27 @@
       <c r="O81" s="76"/>
     </row>
     <row r="82" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="83"/>
-      <c r="B82" s="183" t="s">
-        <v>185</v>
+      <c r="A82" s="83">
+        <v>410</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D82" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E82" s="83"/>
-      <c r="F82" s="97">
+      <c r="F82" s="96">
         <v>2</v>
       </c>
       <c r="G82" s="83"/>
       <c r="H82" s="83"/>
       <c r="I82" s="84">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="J82" s="67"/>
       <c r="K82" s="67"/>
@@ -7756,25 +8040,27 @@
       <c r="O82" s="76"/>
     </row>
     <row r="83" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="83"/>
-      <c r="B83" s="98" t="s">
-        <v>209</v>
+      <c r="A83" s="83">
+        <v>420</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D83" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E83" s="83"/>
-      <c r="F83" s="97">
+      <c r="F83" s="96">
         <v>2</v>
       </c>
       <c r="G83" s="83"/>
       <c r="H83" s="83"/>
       <c r="I83" s="84">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J83" s="67"/>
       <c r="K83" s="67"/>
@@ -7784,25 +8070,27 @@
       <c r="O83" s="76"/>
     </row>
     <row r="84" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="83"/>
-      <c r="B84" s="98" t="s">
-        <v>189</v>
+      <c r="A84" s="83">
+        <v>430</v>
+      </c>
+      <c r="B84" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C84" s="83" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D84" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E84" s="83"/>
-      <c r="F84" s="97">
+      <c r="F84" s="96">
         <v>2</v>
       </c>
       <c r="G84" s="83"/>
       <c r="H84" s="83"/>
       <c r="I84" s="84">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="J84" s="67"/>
       <c r="K84" s="67"/>
@@ -7812,25 +8100,27 @@
       <c r="O84" s="76"/>
     </row>
     <row r="85" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="83"/>
-      <c r="B85" s="183" t="s">
-        <v>185</v>
+      <c r="A85" s="83">
+        <v>440</v>
+      </c>
+      <c r="B85" s="176" t="s">
+        <v>184</v>
       </c>
       <c r="C85" s="83" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D85" s="84">
-        <v>0.06</v>
+        <v>1.5</v>
       </c>
       <c r="E85" s="83"/>
-      <c r="F85" s="97">
+      <c r="F85" s="96">
         <v>2</v>
       </c>
       <c r="G85" s="83"/>
       <c r="H85" s="83"/>
       <c r="I85" s="84">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>3</v>
       </c>
       <c r="J85" s="67"/>
       <c r="K85" s="67"/>
@@ -7840,25 +8130,27 @@
       <c r="O85" s="76"/>
     </row>
     <row r="86" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="83"/>
-      <c r="B86" s="187" t="s">
-        <v>188</v>
+      <c r="A86" s="83">
+        <v>450</v>
+      </c>
+      <c r="B86" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C86" s="83" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D86" s="84">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E86" s="83"/>
-      <c r="F86" s="97">
+      <c r="F86" s="96">
         <v>2</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="83"/>
       <c r="I86" s="84">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J86" s="67"/>
       <c r="K86" s="67"/>
@@ -7868,25 +8160,27 @@
       <c r="O86" s="76"/>
     </row>
     <row r="87" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
-      <c r="B87" s="98" t="s">
-        <v>189</v>
+      <c r="A87" s="83">
+        <v>460</v>
+      </c>
+      <c r="B87" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C87" s="83" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D87" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E87" s="83"/>
-      <c r="F87" s="97">
-        <v>2</v>
+      <c r="F87" s="96">
+        <v>1</v>
       </c>
       <c r="G87" s="83"/>
       <c r="H87" s="83"/>
       <c r="I87" s="84">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="J87" s="67"/>
       <c r="K87" s="67"/>
@@ -7896,25 +8190,27 @@
       <c r="O87" s="76"/>
     </row>
     <row r="88" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
-      <c r="B88" s="183" t="s">
-        <v>185</v>
+      <c r="A88" s="83">
+        <v>470</v>
+      </c>
+      <c r="B88" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C88" s="83" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D88" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E88" s="83"/>
-      <c r="F88" s="97">
-        <v>1</v>
+      <c r="F88" s="96">
+        <v>2</v>
       </c>
       <c r="G88" s="83"/>
       <c r="H88" s="83"/>
       <c r="I88" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>1.5</v>
       </c>
       <c r="J88" s="67"/>
       <c r="K88" s="67"/>
@@ -7924,25 +8220,27 @@
       <c r="O88" s="76"/>
     </row>
     <row r="89" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="83"/>
-      <c r="B89" s="187" t="s">
-        <v>188</v>
+      <c r="A89" s="83">
+        <v>480</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="C89" s="83" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D89" s="84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E89" s="83"/>
-      <c r="F89" s="97">
+      <c r="F89" s="96">
         <v>2</v>
       </c>
       <c r="G89" s="83"/>
       <c r="H89" s="83"/>
       <c r="I89" s="84">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J89" s="67"/>
       <c r="K89" s="67"/>
@@ -7952,25 +8250,27 @@
       <c r="O89" s="76"/>
     </row>
     <row r="90" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="83"/>
-      <c r="B90" s="98" t="s">
-        <v>189</v>
+      <c r="A90" s="83">
+        <v>490</v>
+      </c>
+      <c r="B90" s="172" t="s">
+        <v>181</v>
       </c>
       <c r="C90" s="83" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D90" s="84">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E90" s="83"/>
-      <c r="F90" s="97">
-        <v>2</v>
+      <c r="F90" s="96">
+        <v>1</v>
       </c>
       <c r="G90" s="83"/>
       <c r="H90" s="83"/>
       <c r="I90" s="84">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="J90" s="67"/>
       <c r="K90" s="67"/>
@@ -7980,25 +8280,27 @@
       <c r="O90" s="76"/>
     </row>
     <row r="91" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
-      <c r="B91" s="183" t="s">
-        <v>185</v>
+      <c r="A91" s="83">
+        <v>500</v>
+      </c>
+      <c r="B91" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="C91" s="83" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D91" s="84">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E91" s="83"/>
-      <c r="F91" s="97">
+      <c r="F91" s="96">
         <v>1</v>
       </c>
       <c r="G91" s="83"/>
       <c r="H91" s="83"/>
       <c r="I91" s="84">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J91" s="67"/>
       <c r="K91" s="67"/>
@@ -8007,46 +8309,58 @@
       <c r="N91" s="67"/>
       <c r="O91" s="76"/>
     </row>
-    <row r="92" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
-      <c r="B92" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" s="83" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="84">
-        <v>0.75</v>
-      </c>
-      <c r="E92" s="83"/>
-      <c r="F92" s="97">
+    <row r="92" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="83">
+        <v>510</v>
+      </c>
+      <c r="B92" s="198" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="193" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="170">
+        <v>0.06</v>
+      </c>
+      <c r="E92" s="166"/>
+      <c r="F92" s="171">
         <v>1</v>
       </c>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
+      <c r="G92" s="171"/>
+      <c r="H92" s="171"/>
       <c r="I92" s="84">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="J92" s="67"/>
       <c r="K92" s="67"/>
       <c r="L92" s="67"/>
       <c r="M92" s="67"/>
       <c r="N92" s="67"/>
-      <c r="O92" s="76"/>
+      <c r="O92" s="79"/>
     </row>
     <row r="93" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="83"/>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="97"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="84">
+      <c r="A93" s="83">
+        <v>520</v>
+      </c>
+      <c r="B93" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="195" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="E93" s="194"/>
+      <c r="F93" s="197">
+        <v>1</v>
+      </c>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J93" s="67"/>
       <c r="K93" s="67"/>
@@ -8063,12 +8377,12 @@
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
-      <c r="H94" s="127" t="s">
+      <c r="H94" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="I94" s="128">
-        <f>SUM(I43:I93)</f>
-        <v>37.489999999999995</v>
+      <c r="I94" s="120">
+        <f>SUM(I42:I93)</f>
+        <v>39.204999999999991</v>
       </c>
       <c r="J94" s="66"/>
       <c r="K94" s="66"/>
@@ -8095,34 +8409,34 @@
       <c r="O95" s="72"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="126" t="s">
+      <c r="A96" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="126" t="s">
+      <c r="B96" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="126" t="s">
+      <c r="C96" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="126" t="s">
+      <c r="D96" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="126" t="s">
+      <c r="E96" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="F96" s="126" t="s">
+      <c r="F96" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="G96" s="126" t="s">
+      <c r="G96" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="H96" s="126" t="s">
+      <c r="H96" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="I96" s="126" t="s">
+      <c r="I96" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="J96" s="126" t="s">
+      <c r="J96" s="118" t="s">
         <v>18</v>
       </c>
       <c r="K96" s="66"/>
@@ -8131,382 +8445,1495 @@
       <c r="N96" s="66"/>
       <c r="O96" s="72"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="83">
+    <row r="97" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="182">
         <v>10</v>
       </c>
-      <c r="B97" s="83" t="s">
+      <c r="B97" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="84">
+        <f>0.8/105154*E97^2*G97*SQRT(G97)+(0.003*EXP(0.319*E97))</f>
+        <v>0.2106451163693987</v>
+      </c>
+      <c r="E97" s="182">
+        <v>8</v>
+      </c>
+      <c r="F97" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="182">
+        <v>50</v>
+      </c>
+      <c r="H97" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" s="182">
+        <v>4</v>
+      </c>
+      <c r="J97" s="181">
+        <f t="shared" ref="J97:J137" si="3">I97*D97</f>
+        <v>0.8425804654775948</v>
+      </c>
+      <c r="K97" s="178"/>
+      <c r="L97" s="178"/>
+      <c r="M97" s="178"/>
+      <c r="N97" s="178"/>
+      <c r="O97" s="179"/>
+    </row>
+    <row r="98" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="182">
+        <v>20</v>
+      </c>
+      <c r="B98" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="83" t="s">
+      <c r="C98" s="182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E98" s="182"/>
+      <c r="F98" s="182"/>
+      <c r="G98" s="182"/>
+      <c r="H98" s="182"/>
+      <c r="I98" s="182">
+        <v>8</v>
+      </c>
+      <c r="J98" s="181">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="K98" s="178"/>
+      <c r="L98" s="178"/>
+      <c r="M98" s="178"/>
+      <c r="N98" s="178"/>
+      <c r="O98" s="179"/>
+    </row>
+    <row r="99" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="182">
+        <v>30</v>
+      </c>
+      <c r="B99" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="D97" s="99">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E97" s="100">
+      <c r="C99" s="182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="84">
+        <f>(0.009*EXP(0.2*E99))</f>
+        <v>4.4577291819556032E-2</v>
+      </c>
+      <c r="E99" s="182">
         <v>8</v>
       </c>
-      <c r="F97" s="100" t="s">
+      <c r="F99" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="G97" s="100">
-        <v>35</v>
-      </c>
-      <c r="H97" s="100" t="s">
+      <c r="G99" s="182"/>
+      <c r="H99" s="182"/>
+      <c r="I99" s="182">
+        <v>4</v>
+      </c>
+      <c r="J99" s="181">
+        <f t="shared" si="3"/>
+        <v>0.17830916727822413</v>
+      </c>
+      <c r="K99" s="178"/>
+      <c r="L99" s="178"/>
+      <c r="M99" s="178"/>
+      <c r="N99" s="178"/>
+      <c r="O99" s="179"/>
+    </row>
+    <row r="100" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="182">
+        <v>40</v>
+      </c>
+      <c r="B100" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D100" s="84">
+        <f>0.8/105154*E100^2*G100*SQRT(G100)+(0.003*EXP(0.319*E100))</f>
+        <v>0.2106451163693987</v>
+      </c>
+      <c r="E100" s="182">
+        <v>8</v>
+      </c>
+      <c r="F100" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="I97" s="101">
+      <c r="G100" s="182">
+        <v>50</v>
+      </c>
+      <c r="H100" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" s="182">
         <v>2</v>
       </c>
-      <c r="J97" s="84">
-        <f>I97*D97</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K97" s="66"/>
-      <c r="L97" s="66"/>
-      <c r="M97" s="66"/>
-      <c r="N97" s="66"/>
-      <c r="O97" s="72"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="83">
-        <v>20</v>
-      </c>
-      <c r="B98" s="83" t="s">
+      <c r="J100" s="181">
+        <f t="shared" si="3"/>
+        <v>0.4212902327387974</v>
+      </c>
+      <c r="K100" s="178"/>
+      <c r="L100" s="178"/>
+      <c r="M100" s="178"/>
+      <c r="N100" s="178"/>
+      <c r="O100" s="179"/>
+    </row>
+    <row r="101" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="182">
+        <v>50</v>
+      </c>
+      <c r="B101" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E101" s="182"/>
+      <c r="F101" s="182"/>
+      <c r="G101" s="182"/>
+      <c r="H101" s="182"/>
+      <c r="I101" s="182">
+        <v>4</v>
+      </c>
+      <c r="J101" s="181">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K101" s="178"/>
+      <c r="L101" s="178"/>
+      <c r="M101" s="178"/>
+      <c r="N101" s="178"/>
+      <c r="O101" s="179"/>
+    </row>
+    <row r="102" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="182">
+        <v>60</v>
+      </c>
+      <c r="B102" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="84">
+        <f>(0.009*EXP(0.2*E102))</f>
+        <v>4.4577291819556032E-2</v>
+      </c>
+      <c r="E102" s="182">
+        <v>8</v>
+      </c>
+      <c r="F102" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="182"/>
+      <c r="H102" s="182"/>
+      <c r="I102" s="182">
+        <v>2</v>
+      </c>
+      <c r="J102" s="181">
+        <f t="shared" si="3"/>
+        <v>8.9154583639112064E-2</v>
+      </c>
+      <c r="K102" s="178"/>
+      <c r="L102" s="178"/>
+      <c r="M102" s="178"/>
+      <c r="N102" s="178"/>
+      <c r="O102" s="179"/>
+    </row>
+    <row r="103" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="182">
+        <v>70</v>
+      </c>
+      <c r="B103" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" s="84">
+        <f>0.8/105154*E103^2*G103*SQRT(G103)+(0.003*EXP(0.319*E103))</f>
+        <v>0.2106451163693987</v>
+      </c>
+      <c r="E103" s="182">
+        <v>8</v>
+      </c>
+      <c r="F103" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="182">
+        <v>50</v>
+      </c>
+      <c r="H103" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" s="182">
+        <v>2</v>
+      </c>
+      <c r="J103" s="181">
+        <f t="shared" si="3"/>
+        <v>0.4212902327387974</v>
+      </c>
+      <c r="K103" s="178"/>
+      <c r="L103" s="178"/>
+      <c r="M103" s="178"/>
+      <c r="N103" s="178"/>
+      <c r="O103" s="179"/>
+    </row>
+    <row r="104" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="182">
+        <v>80</v>
+      </c>
+      <c r="B104" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E104" s="182"/>
+      <c r="F104" s="182"/>
+      <c r="G104" s="182"/>
+      <c r="H104" s="182"/>
+      <c r="I104" s="182">
+        <v>4</v>
+      </c>
+      <c r="J104" s="181">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K104" s="178"/>
+      <c r="L104" s="178"/>
+      <c r="M104" s="178"/>
+      <c r="N104" s="178"/>
+      <c r="O104" s="179"/>
+    </row>
+    <row r="105" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="182">
+        <v>90</v>
+      </c>
+      <c r="B105" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" s="84">
+        <f>(0.009*EXP(0.2*E105))</f>
+        <v>4.4577291819556032E-2</v>
+      </c>
+      <c r="E105" s="182">
+        <v>8</v>
+      </c>
+      <c r="F105" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="182"/>
+      <c r="H105" s="182"/>
+      <c r="I105" s="182">
+        <v>2</v>
+      </c>
+      <c r="J105" s="181">
+        <f t="shared" si="3"/>
+        <v>8.9154583639112064E-2</v>
+      </c>
+      <c r="K105" s="178"/>
+      <c r="L105" s="178"/>
+      <c r="M105" s="178"/>
+      <c r="N105" s="178"/>
+      <c r="O105" s="179"/>
+    </row>
+    <row r="106" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="182">
+        <v>100</v>
+      </c>
+      <c r="B106" s="192" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="175" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="84">
+        <v>0</v>
+      </c>
+      <c r="E106" s="182"/>
+      <c r="F106" s="182"/>
+      <c r="G106" s="182"/>
+      <c r="H106" s="182"/>
+      <c r="I106" s="182"/>
+      <c r="J106" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="178"/>
+      <c r="L106" s="178"/>
+      <c r="M106" s="178"/>
+      <c r="N106" s="178"/>
+      <c r="O106" s="179"/>
+    </row>
+    <row r="107" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="182">
+        <v>110</v>
+      </c>
+      <c r="B107" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="175" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E107" s="182"/>
+      <c r="F107" s="182"/>
+      <c r="G107" s="182"/>
+      <c r="H107" s="182"/>
+      <c r="I107" s="182">
+        <v>4</v>
+      </c>
+      <c r="J107" s="181">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K107" s="178"/>
+      <c r="L107" s="178"/>
+      <c r="M107" s="178"/>
+      <c r="N107" s="178"/>
+      <c r="O107" s="179"/>
+    </row>
+    <row r="108" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="182">
+        <v>120</v>
+      </c>
+      <c r="B108" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="175" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="84">
+        <f>(0.009*EXP(0.2*E108))</f>
+        <v>6.6501504890375845E-2</v>
+      </c>
+      <c r="E108" s="182">
+        <v>10</v>
+      </c>
+      <c r="F108" s="182"/>
+      <c r="G108" s="182"/>
+      <c r="H108" s="182"/>
+      <c r="I108" s="182">
+        <v>1</v>
+      </c>
+      <c r="J108" s="181">
+        <f t="shared" si="3"/>
+        <v>6.6501504890375845E-2</v>
+      </c>
+      <c r="K108" s="178"/>
+      <c r="L108" s="178"/>
+      <c r="M108" s="178"/>
+      <c r="N108" s="178"/>
+      <c r="O108" s="179"/>
+    </row>
+    <row r="109" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="182">
+        <v>130</v>
+      </c>
+      <c r="B109" s="192" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D109" s="84">
+        <v>0</v>
+      </c>
+      <c r="E109" s="182"/>
+      <c r="F109" s="182"/>
+      <c r="G109" s="182"/>
+      <c r="H109" s="182"/>
+      <c r="I109" s="182"/>
+      <c r="J109" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="178"/>
+      <c r="L109" s="178"/>
+      <c r="M109" s="178"/>
+      <c r="N109" s="178"/>
+      <c r="O109" s="179"/>
+    </row>
+    <row r="110" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="182">
+        <v>140</v>
+      </c>
+      <c r="B110" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E110" s="182"/>
+      <c r="F110" s="182"/>
+      <c r="G110" s="182"/>
+      <c r="H110" s="182"/>
+      <c r="I110" s="182">
+        <v>4</v>
+      </c>
+      <c r="J110" s="181">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K110" s="178"/>
+      <c r="L110" s="178"/>
+      <c r="M110" s="178"/>
+      <c r="N110" s="178"/>
+      <c r="O110" s="179"/>
+    </row>
+    <row r="111" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="182">
+        <v>150</v>
+      </c>
+      <c r="B111" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D111" s="84">
+        <f>(0.009*EXP(0.2*E111))</f>
+        <v>6.6501504890375845E-2</v>
+      </c>
+      <c r="E111" s="182">
+        <v>10</v>
+      </c>
+      <c r="F111" s="182"/>
+      <c r="G111" s="182"/>
+      <c r="H111" s="182"/>
+      <c r="I111" s="182">
+        <v>1</v>
+      </c>
+      <c r="J111" s="181">
+        <f t="shared" si="3"/>
+        <v>6.6501504890375845E-2</v>
+      </c>
+      <c r="K111" s="178"/>
+      <c r="L111" s="178"/>
+      <c r="M111" s="178"/>
+      <c r="N111" s="178"/>
+      <c r="O111" s="179"/>
+    </row>
+    <row r="112" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="182">
+        <v>160</v>
+      </c>
+      <c r="B112" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="84">
+        <f>0.8/105154*E112^2*G112*SQRT(G112)+(0.003*EXP(0.319*E112))</f>
+        <v>5.3783567080586181E-2</v>
+      </c>
+      <c r="E112" s="182">
+        <v>4</v>
+      </c>
+      <c r="F112" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="182">
+        <v>50</v>
+      </c>
+      <c r="H112" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="182">
+        <v>1</v>
+      </c>
+      <c r="J112" s="181">
+        <f t="shared" si="3"/>
+        <v>5.3783567080586181E-2</v>
+      </c>
+      <c r="K112" s="178"/>
+      <c r="L112" s="178"/>
+      <c r="M112" s="178"/>
+      <c r="N112" s="178"/>
+      <c r="O112" s="179"/>
+    </row>
+    <row r="113" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="182">
+        <v>170</v>
+      </c>
+      <c r="B113" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="84">
+        <f>0.1*E113</f>
+        <v>0.4</v>
+      </c>
+      <c r="E113" s="182">
+        <v>4</v>
+      </c>
+      <c r="F113" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="182"/>
+      <c r="H113" s="182"/>
+      <c r="I113" s="182">
+        <v>2</v>
+      </c>
+      <c r="J113" s="181">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="K113" s="178"/>
+      <c r="L113" s="178"/>
+      <c r="M113" s="178"/>
+      <c r="N113" s="178"/>
+      <c r="O113" s="179"/>
+    </row>
+    <row r="114" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="182">
+        <v>180</v>
+      </c>
+      <c r="B114" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" s="84">
+        <f>(0.009*EXP(0.2*E114))</f>
+        <v>2.0029868356432209E-2</v>
+      </c>
+      <c r="E114" s="182">
+        <v>4</v>
+      </c>
+      <c r="F114" s="182"/>
+      <c r="G114" s="182"/>
+      <c r="H114" s="182"/>
+      <c r="I114" s="182">
+        <v>1</v>
+      </c>
+      <c r="J114" s="181">
+        <f t="shared" si="3"/>
+        <v>2.0029868356432209E-2</v>
+      </c>
+      <c r="K114" s="178"/>
+      <c r="L114" s="178"/>
+      <c r="M114" s="178"/>
+      <c r="N114" s="178"/>
+      <c r="O114" s="179"/>
+    </row>
+    <row r="115" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="182">
+        <v>190</v>
+      </c>
+      <c r="B115" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" s="84">
+        <f>0.8/105154*E115^2*G115*SQRT(G115)+(0.003*EXP(0.319*E115))</f>
+        <v>8.9628250610286439E-2</v>
+      </c>
+      <c r="E115" s="182">
+        <v>6</v>
+      </c>
+      <c r="F115" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="182">
+        <v>40</v>
+      </c>
+      <c r="H115" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="182">
+        <v>1</v>
+      </c>
+      <c r="J115" s="181">
+        <f t="shared" si="3"/>
+        <v>8.9628250610286439E-2</v>
+      </c>
+      <c r="K115" s="178"/>
+      <c r="L115" s="178"/>
+      <c r="M115" s="178"/>
+      <c r="N115" s="178"/>
+      <c r="O115" s="179"/>
+    </row>
+    <row r="116" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="182">
+        <v>200</v>
+      </c>
+      <c r="B116" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E116" s="182"/>
+      <c r="F116" s="182"/>
+      <c r="G116" s="182"/>
+      <c r="H116" s="182"/>
+      <c r="I116" s="182">
+        <v>2</v>
+      </c>
+      <c r="J116" s="181">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="K116" s="178"/>
+      <c r="L116" s="178"/>
+      <c r="M116" s="178"/>
+      <c r="N116" s="178"/>
+      <c r="O116" s="179"/>
+    </row>
+    <row r="117" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="182">
+        <v>210</v>
+      </c>
+      <c r="B117" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" s="84">
+        <f>(0.009*EXP(0.2*E117))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E117" s="182">
+        <v>6</v>
+      </c>
+      <c r="F117" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="182"/>
+      <c r="H117" s="182"/>
+      <c r="I117" s="182">
+        <v>1</v>
+      </c>
+      <c r="J117" s="181">
+        <f t="shared" si="3"/>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="K117" s="178"/>
+      <c r="L117" s="178"/>
+      <c r="M117" s="178"/>
+      <c r="N117" s="178"/>
+      <c r="O117" s="179"/>
+    </row>
+    <row r="118" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="182">
+        <v>220</v>
+      </c>
+      <c r="B118" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E118" s="182"/>
+      <c r="F118" s="182"/>
+      <c r="G118" s="182"/>
+      <c r="H118" s="182"/>
+      <c r="I118" s="182">
+        <v>2</v>
+      </c>
+      <c r="J118" s="181">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="K118" s="178"/>
+      <c r="L118" s="178"/>
+      <c r="M118" s="178"/>
+      <c r="N118" s="178"/>
+      <c r="O118" s="179"/>
+    </row>
+    <row r="119" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="182">
+        <v>230</v>
+      </c>
+      <c r="B119" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" s="84">
+        <f>(0.009*EXP(0.2*E119))</f>
+        <v>4.4577291819556032E-2</v>
+      </c>
+      <c r="E119" s="182">
+        <v>8</v>
+      </c>
+      <c r="F119" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="182"/>
+      <c r="H119" s="182"/>
+      <c r="I119" s="182">
+        <v>2</v>
+      </c>
+      <c r="J119" s="181">
+        <f t="shared" si="3"/>
+        <v>8.9154583639112064E-2</v>
+      </c>
+      <c r="K119" s="178"/>
+      <c r="L119" s="178"/>
+      <c r="M119" s="178"/>
+      <c r="N119" s="178"/>
+      <c r="O119" s="179"/>
+    </row>
+    <row r="120" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="182">
+        <v>240</v>
+      </c>
+      <c r="B120" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" s="84">
+        <f>1.25/105154*E120^2*G120*SQRT(G120)+(0.005*EXP(0.319*E120))</f>
+        <v>0.52761511887802037</v>
+      </c>
+      <c r="E120" s="182">
+        <v>6</v>
+      </c>
+      <c r="F120" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="182">
+        <v>110</v>
+      </c>
+      <c r="H120" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="182">
+        <v>1</v>
+      </c>
+      <c r="J120" s="181">
+        <f t="shared" si="3"/>
+        <v>0.52761511887802037</v>
+      </c>
+      <c r="K120" s="178"/>
+      <c r="L120" s="178"/>
+      <c r="M120" s="178"/>
+      <c r="N120" s="178"/>
+      <c r="O120" s="179"/>
+    </row>
+    <row r="121" spans="1:15" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="182">
+        <v>250</v>
+      </c>
+      <c r="B121" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E121" s="185"/>
+      <c r="F121" s="185"/>
+      <c r="G121" s="185"/>
+      <c r="H121" s="185"/>
+      <c r="I121" s="186">
+        <v>2</v>
+      </c>
+      <c r="J121" s="181">
+        <f>I121*D121</f>
+        <v>0.02</v>
+      </c>
+      <c r="K121" s="178"/>
+      <c r="L121" s="178"/>
+      <c r="M121" s="178"/>
+      <c r="N121" s="178"/>
+      <c r="O121" s="179"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="182">
+        <v>260</v>
+      </c>
+      <c r="B122" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D122" s="84">
+        <f>(0.009*EXP(0.2*E122))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E122" s="183">
+        <v>6</v>
+      </c>
+      <c r="F122" s="187"/>
+      <c r="G122" s="183"/>
+      <c r="H122" s="183"/>
+      <c r="I122" s="188">
+        <v>1</v>
+      </c>
+      <c r="J122" s="181">
+        <f t="shared" si="3"/>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="K122" s="66"/>
+      <c r="L122" s="66"/>
+      <c r="M122" s="66"/>
+      <c r="N122" s="66"/>
+      <c r="O122" s="72"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="182">
+        <v>270</v>
+      </c>
+      <c r="B123" s="191" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" s="84">
+        <v>0</v>
+      </c>
+      <c r="E123" s="183"/>
+      <c r="F123" s="187"/>
+      <c r="G123" s="183"/>
+      <c r="H123" s="183"/>
+      <c r="I123" s="188"/>
+      <c r="J123" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
+      <c r="M123" s="66"/>
+      <c r="N123" s="66"/>
+      <c r="O123" s="72"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="182">
+        <v>280</v>
+      </c>
+      <c r="B124" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="D124" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E124" s="184"/>
+      <c r="F124" s="189"/>
+      <c r="G124" s="184"/>
+      <c r="H124" s="184"/>
+      <c r="I124" s="190">
+        <v>4</v>
+      </c>
+      <c r="J124" s="181">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K124" s="68"/>
+      <c r="L124" s="68"/>
+      <c r="M124" s="68"/>
+      <c r="N124" s="68"/>
+      <c r="O124" s="72"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="182">
+        <v>290</v>
+      </c>
+      <c r="B125" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="D125" s="84">
+        <f>(0.009*EXP(0.2*E125))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E125" s="184">
+        <v>6</v>
+      </c>
+      <c r="F125" s="189"/>
+      <c r="G125" s="184"/>
+      <c r="H125" s="184"/>
+      <c r="I125" s="190">
+        <v>4</v>
+      </c>
+      <c r="J125" s="181">
+        <f t="shared" si="3"/>
+        <v>0.11952420921851573</v>
+      </c>
+      <c r="K125" s="68"/>
+      <c r="L125" s="68"/>
+      <c r="M125" s="68"/>
+      <c r="N125" s="68"/>
+      <c r="O125" s="72"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126" s="182">
+        <v>300</v>
+      </c>
+      <c r="B126" s="191" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" s="84">
+        <v>0</v>
+      </c>
+      <c r="E126" s="184"/>
+      <c r="F126" s="189"/>
+      <c r="G126" s="184"/>
+      <c r="H126" s="184"/>
+      <c r="I126" s="190"/>
+      <c r="J126" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="68"/>
+      <c r="L126" s="68"/>
+      <c r="M126" s="68"/>
+      <c r="N126" s="68"/>
+      <c r="O126" s="72"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="182">
+        <v>310</v>
+      </c>
+      <c r="B127" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E127" s="184">
+        <v>6</v>
+      </c>
+      <c r="F127" s="189"/>
+      <c r="G127" s="184"/>
+      <c r="H127" s="184"/>
+      <c r="I127" s="190">
+        <v>4</v>
+      </c>
+      <c r="J127" s="181">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K127" s="68"/>
+      <c r="L127" s="68"/>
+      <c r="M127" s="68"/>
+      <c r="N127" s="68"/>
+      <c r="O127" s="72"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128" s="182">
+        <v>320</v>
+      </c>
+      <c r="B128" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" s="84">
+        <f>(0.009*EXP(0.2*E128))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E128" s="184">
+        <v>6</v>
+      </c>
+      <c r="F128" s="189"/>
+      <c r="G128" s="184"/>
+      <c r="H128" s="184"/>
+      <c r="I128" s="190">
+        <v>4</v>
+      </c>
+      <c r="J128" s="181">
+        <f t="shared" si="3"/>
+        <v>0.11952420921851573</v>
+      </c>
+      <c r="K128" s="68"/>
+      <c r="L128" s="68"/>
+      <c r="M128" s="68"/>
+      <c r="N128" s="68"/>
+      <c r="O128" s="72"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" s="182">
+        <v>330</v>
+      </c>
+      <c r="B129" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" s="84">
+        <f>1.25/105154*E129^2*G129*SQRT(G129)+(0.005*EXP(0.319*E129))</f>
+        <v>0.28453119293512596</v>
+      </c>
+      <c r="E129" s="184">
+        <v>6</v>
+      </c>
+      <c r="F129" s="189"/>
+      <c r="G129" s="184">
+        <v>70</v>
+      </c>
+      <c r="H129" s="184"/>
+      <c r="I129" s="190">
+        <v>1</v>
+      </c>
+      <c r="J129" s="181">
+        <f t="shared" si="3"/>
+        <v>0.28453119293512596</v>
+      </c>
+      <c r="K129" s="68"/>
+      <c r="L129" s="68"/>
+      <c r="M129" s="68"/>
+      <c r="N129" s="68"/>
+      <c r="O129" s="72"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" s="182">
+        <v>340</v>
+      </c>
+      <c r="B130" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="84">
+        <f>(0.009*EXP(0.2*E130))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E130" s="184">
+        <v>6</v>
+      </c>
+      <c r="F130" s="189"/>
+      <c r="G130" s="184"/>
+      <c r="H130" s="184"/>
+      <c r="I130" s="190">
+        <v>3</v>
+      </c>
+      <c r="J130" s="181">
+        <f t="shared" si="3"/>
+        <v>8.9643156913886801E-2</v>
+      </c>
+      <c r="K130" s="68"/>
+      <c r="L130" s="68"/>
+      <c r="M130" s="68"/>
+      <c r="N130" s="68"/>
+      <c r="O130" s="72"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" s="182">
+        <v>350</v>
+      </c>
+      <c r="B131" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="84">
+        <f>1.25/105154*E131^2*G131*SQRT(G131)+(0.005*EXP(0.319*E131))</f>
+        <v>1.640255824451772E-2</v>
+      </c>
+      <c r="E131" s="184">
+        <v>3</v>
+      </c>
+      <c r="F131" s="189"/>
+      <c r="G131" s="184">
+        <v>10</v>
+      </c>
+      <c r="H131" s="184"/>
+      <c r="I131" s="190">
+        <v>1</v>
+      </c>
+      <c r="J131" s="181">
+        <f t="shared" si="3"/>
+        <v>1.640255824451772E-2</v>
+      </c>
+      <c r="K131" s="68"/>
+      <c r="L131" s="68"/>
+      <c r="M131" s="68"/>
+      <c r="N131" s="68"/>
+      <c r="O131" s="72"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132" s="182">
+        <v>360</v>
+      </c>
+      <c r="B132" s="182"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="84">
+        <v>0</v>
+      </c>
+      <c r="E132" s="184"/>
+      <c r="F132" s="189"/>
+      <c r="G132" s="184"/>
+      <c r="H132" s="184"/>
+      <c r="I132" s="190"/>
+      <c r="J132" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="68"/>
+      <c r="L132" s="68"/>
+      <c r="M132" s="68"/>
+      <c r="N132" s="68"/>
+      <c r="O132" s="72"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" s="182">
+        <v>370</v>
+      </c>
+      <c r="B133" s="182"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="84">
+        <v>0</v>
+      </c>
+      <c r="E133" s="184"/>
+      <c r="F133" s="189"/>
+      <c r="G133" s="184"/>
+      <c r="H133" s="184"/>
+      <c r="I133" s="190"/>
+      <c r="J133" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="68"/>
+      <c r="L133" s="68"/>
+      <c r="M133" s="68"/>
+      <c r="N133" s="68"/>
+      <c r="O133" s="72"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="182">
+        <v>380</v>
+      </c>
+      <c r="B134" s="182"/>
+      <c r="C134" s="83"/>
+      <c r="D134" s="84">
+        <v>0</v>
+      </c>
+      <c r="E134" s="184"/>
+      <c r="F134" s="189"/>
+      <c r="G134" s="184"/>
+      <c r="H134" s="184"/>
+      <c r="I134" s="190"/>
+      <c r="J134" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="68"/>
+      <c r="L134" s="68"/>
+      <c r="M134" s="68"/>
+      <c r="N134" s="68"/>
+      <c r="O134" s="72"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="182">
+        <v>390</v>
+      </c>
+      <c r="B135" s="182"/>
+      <c r="C135" s="83"/>
+      <c r="D135" s="84">
+        <v>0</v>
+      </c>
+      <c r="E135" s="184"/>
+      <c r="F135" s="189"/>
+      <c r="G135" s="184"/>
+      <c r="H135" s="184"/>
+      <c r="I135" s="190"/>
+      <c r="J135" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="68"/>
+      <c r="L135" s="68"/>
+      <c r="M135" s="68"/>
+      <c r="N135" s="68"/>
+      <c r="O135" s="72"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="182">
+        <v>400</v>
+      </c>
+      <c r="B136" s="182"/>
+      <c r="C136" s="83"/>
+      <c r="D136" s="84">
+        <v>0</v>
+      </c>
+      <c r="E136" s="184"/>
+      <c r="F136" s="189"/>
+      <c r="G136" s="184"/>
+      <c r="H136" s="184"/>
+      <c r="I136" s="190"/>
+      <c r="J136" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="68"/>
+      <c r="L136" s="68"/>
+      <c r="M136" s="68"/>
+      <c r="N136" s="68"/>
+      <c r="O136" s="72"/>
+    </row>
+    <row r="137" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="182">
+        <v>410</v>
+      </c>
+      <c r="B137" s="183"/>
+      <c r="C137" s="184"/>
+      <c r="D137" s="84">
+        <v>0</v>
+      </c>
+      <c r="E137" s="183"/>
+      <c r="F137" s="187"/>
+      <c r="G137" s="183"/>
+      <c r="H137" s="183"/>
+      <c r="I137" s="188"/>
+      <c r="J137" s="181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="67"/>
+      <c r="L137" s="67"/>
+      <c r="M137" s="67"/>
+      <c r="N137" s="67"/>
+      <c r="O137" s="76"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" s="78"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="120">
+        <f>SUM(J97:J137)</f>
+        <v>4.8243810949966459</v>
+      </c>
+      <c r="K138" s="66"/>
+      <c r="L138" s="66"/>
+      <c r="M138" s="66"/>
+      <c r="N138" s="66"/>
+      <c r="O138" s="72"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" s="73"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="66"/>
+      <c r="M139" s="66"/>
+      <c r="N139" s="66"/>
+      <c r="O139" s="72"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="99">
-        <v>0.01</v>
-      </c>
-      <c r="E98" s="83">
-        <v>8</v>
-      </c>
-      <c r="F98" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="101">
-        <v>2</v>
-      </c>
-      <c r="J98" s="84">
-        <f>I98*D98</f>
-        <v>0.02</v>
-      </c>
-      <c r="K98" s="66"/>
-      <c r="L98" s="66"/>
-      <c r="M98" s="66"/>
-      <c r="N98" s="66"/>
-      <c r="O98" s="72"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="83">
-        <v>30</v>
-      </c>
-      <c r="B99" s="83" t="s">
+      <c r="C140" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D99" s="99">
-        <v>0.01</v>
-      </c>
-      <c r="E99" s="83">
-        <v>12</v>
-      </c>
-      <c r="F99" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="101">
-        <v>12</v>
-      </c>
-      <c r="J99" s="84">
-        <f>I99*D99</f>
-        <v>0.12</v>
-      </c>
-      <c r="K99" s="66"/>
-      <c r="L99" s="66"/>
-      <c r="M99" s="66"/>
-      <c r="N99" s="66"/>
-      <c r="O99" s="72"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="83">
-        <v>40</v>
-      </c>
-      <c r="B100" s="103" t="s">
+      <c r="H140" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="89"/>
-      <c r="D100" s="104">
-        <v>0.04</v>
-      </c>
-      <c r="E100" s="89">
-        <v>12</v>
-      </c>
-      <c r="F100" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="106">
-        <v>6</v>
-      </c>
-      <c r="J100" s="84">
-        <f>I100*D100</f>
-        <v>0.24</v>
-      </c>
-      <c r="K100" s="68"/>
-      <c r="L100" s="68"/>
-      <c r="M100" s="68"/>
-      <c r="N100" s="68"/>
-      <c r="O100" s="72"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="83"/>
-      <c r="B101" s="103"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="106"/>
-      <c r="J101" s="84"/>
-      <c r="K101" s="68"/>
-      <c r="L101" s="68"/>
-      <c r="M101" s="68"/>
-      <c r="N101" s="68"/>
-      <c r="O101" s="72"/>
-    </row>
-    <row r="102" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="83"/>
-      <c r="B102" s="83"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="101"/>
-      <c r="J102" s="84"/>
-      <c r="K102" s="67"/>
-      <c r="L102" s="67"/>
-      <c r="M102" s="67"/>
-      <c r="N102" s="67"/>
-      <c r="O102" s="76"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="83"/>
-      <c r="B103" s="103"/>
-      <c r="C103" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="104"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="106"/>
-      <c r="J103" s="84"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="68"/>
-      <c r="M103" s="68"/>
-      <c r="N103" s="68"/>
-      <c r="O103" s="72"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="78"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="127" t="s">
+      <c r="I140" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="J104" s="128">
-        <f>SUM(J97:J101)</f>
-        <v>0.66</v>
-      </c>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
-      <c r="N104" s="66"/>
-      <c r="O104" s="72"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="73"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="66"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="72"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="126" t="s">
+      <c r="J140" s="28"/>
+      <c r="K140" s="66"/>
+      <c r="L140" s="66"/>
+      <c r="M140" s="66"/>
+      <c r="N140" s="66"/>
+      <c r="O140" s="72"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141" s="83">
+        <v>10</v>
+      </c>
+      <c r="B141" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="126" t="s">
+      <c r="C141" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D141" s="84">
+        <v>500</v>
+      </c>
+      <c r="E141" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="83">
         <v>22</v>
       </c>
-      <c r="E106" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="F106" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="H106" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="I106" s="126" t="s">
+      <c r="G141" s="83">
+        <v>3000</v>
+      </c>
+      <c r="H141" s="83">
+        <v>1</v>
+      </c>
+      <c r="I141" s="84">
+        <f>D141*F141/G141*H141</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="J141" s="28"/>
+      <c r="K141" s="66"/>
+      <c r="L141" s="66"/>
+      <c r="M141" s="66"/>
+      <c r="N141" s="66"/>
+      <c r="O141" s="72"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" s="96"/>
+      <c r="B142" s="96"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="96"/>
+      <c r="E142" s="96"/>
+      <c r="F142" s="96"/>
+      <c r="G142" s="96"/>
+      <c r="H142" s="96"/>
+      <c r="I142" s="96"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="66"/>
+      <c r="L142" s="66"/>
+      <c r="M142" s="66"/>
+      <c r="N142" s="66"/>
+      <c r="O142" s="72"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" s="78"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="28"/>
-      <c r="K106" s="66"/>
-      <c r="L106" s="66"/>
-      <c r="M106" s="66"/>
-      <c r="N106" s="66"/>
-      <c r="O106" s="72"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="83">
-        <v>10</v>
-      </c>
-      <c r="B107" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="84">
-        <v>500</v>
-      </c>
-      <c r="E107" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="F107" s="83">
-        <v>30</v>
-      </c>
-      <c r="G107" s="83">
-        <v>3000</v>
-      </c>
-      <c r="H107" s="83">
-        <v>1</v>
-      </c>
-      <c r="I107" s="84">
-        <f>D107*F107/G107*H107</f>
-        <v>5</v>
-      </c>
-      <c r="J107" s="28"/>
-      <c r="K107" s="66"/>
-      <c r="L107" s="66"/>
-      <c r="M107" s="66"/>
-      <c r="N107" s="66"/>
-      <c r="O107" s="72"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="97"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="97"/>
-      <c r="F108" s="97"/>
-      <c r="G108" s="97"/>
-      <c r="H108" s="97"/>
-      <c r="I108" s="97"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
-      <c r="O108" s="72"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="78"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" s="131">
-        <f>SUM(I107:I108)</f>
-        <v>5</v>
-      </c>
-      <c r="J109" s="28"/>
-      <c r="K109" s="66"/>
-      <c r="L109" s="66"/>
-      <c r="M109" s="66"/>
-      <c r="N109" s="66"/>
-      <c r="O109" s="72"/>
-    </row>
-    <row r="110" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="80"/>
-      <c r="B110" s="81"/>
-      <c r="C110" s="81"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="81"/>
-      <c r="K110" s="81"/>
-      <c r="L110" s="81"/>
-      <c r="M110" s="81"/>
-      <c r="N110" s="81"/>
-      <c r="O110" s="82"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="66"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="66"/>
-      <c r="M111" s="66"/>
-      <c r="N111" s="66"/>
+      <c r="I143" s="123">
+        <f>SUM(I141:I142)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="J143" s="28"/>
+      <c r="K143" s="66"/>
+      <c r="L143" s="66"/>
+      <c r="M143" s="66"/>
+      <c r="N143" s="66"/>
+      <c r="O143" s="72"/>
+    </row>
+    <row r="144" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="80"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="81"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
+      <c r="K144" s="81"/>
+      <c r="L144" s="81"/>
+      <c r="M144" s="81"/>
+      <c r="N144" s="81"/>
+      <c r="O144" s="82"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" s="66"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="66"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
+      <c r="J145" s="66"/>
+      <c r="K145" s="66"/>
+      <c r="L145" s="66"/>
+      <c r="M145" s="66"/>
+      <c r="N145" s="66"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" location="BR_01001" display="BR_01001"/>
+    <hyperlink ref="B11" location="FR_0300_001!A1" display="Brake pedal "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8514,7 +9941,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="110" max="16383" man="1"/>
+    <brk id="144" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8525,10 +9952,10 @@
     <tabColor rgb="FFFF99FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8563,39 +9990,39 @@
       <c r="O1" s="71"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="145" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
       <c r="G2" s="66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="154" t="s">
+      <c r="J2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="107">
+      <c r="K2" s="99">
         <v>81</v>
       </c>
       <c r="L2" s="66"/>
-      <c r="M2" s="153" t="s">
+      <c r="M2" s="145" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="84">
-        <f>BR_01001_m+BR_01001_p+BR_01001_f+BR_01001_t</f>
-        <v>6.8615487933333332</v>
+        <f>BR_01001_m+BR_01001_p</f>
+        <v>3.0255999999999998</v>
       </c>
       <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="145" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -8603,11 +10030,11 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="66"/>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="116" t="s">
-        <v>107</v>
+      <c r="E3" s="108" t="s">
+        <v>104</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -8616,24 +10043,24 @@
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="66"/>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="101">
-        <v>1</v>
+      <c r="N3" s="98">
+        <v>2</v>
       </c>
       <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="115" t="str">
+      <c r="B4" s="107" t="str">
         <f>'FR A0300'!B4</f>
         <v>Pedal box</v>
       </c>
       <c r="C4" s="66"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="145" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="66"/>
@@ -8641,7 +10068,7 @@
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="147" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="66"/>
@@ -8651,14 +10078,14 @@
       <c r="O4" s="72"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="145" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C5" s="66"/>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="145" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="66"/>
@@ -8666,26 +10093,26 @@
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
-      <c r="J5" s="155" t="s">
+      <c r="J5" s="147" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
-      <c r="M5" s="153" t="s">
+      <c r="M5" s="145" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="84">
         <f>N3*N2</f>
-        <v>6.8615487933333332</v>
+        <v>6.0511999999999997</v>
       </c>
       <c r="O5" s="72"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="145" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -8694,7 +10121,7 @@
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="147" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66"/>
@@ -8704,7 +10131,7 @@
       <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="145" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -8725,11 +10152,11 @@
       <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="145" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
@@ -8746,7 +10173,7 @@
       <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -8763,90 +10190,75 @@
       <c r="O9" s="72"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="158" t="s">
+      <c r="G10" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="158" t="s">
+      <c r="H10" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="158" t="s">
+      <c r="I10" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="158" t="s">
+      <c r="J10" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="158" t="s">
+      <c r="K10" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="158" t="s">
+      <c r="L10" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="158" t="s">
+      <c r="M10" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="158" t="s">
+      <c r="N10" s="150" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="72"/>
     </row>
     <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109">
+      <c r="A11" s="101">
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>53</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="36">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
-        <v>116</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>31</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="124">
-        <f>(E11*10^-3)^2*3.14</f>
-        <v>4.2251840000000006E-2</v>
-      </c>
-      <c r="K11" s="25">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="L11" s="35">
-        <v>7000</v>
-      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="27">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="N11" s="36">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
-        <v>1.3309329600000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="O11" s="77"/>
     </row>
@@ -8863,12 +10275,12 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="159" t="s">
+      <c r="M12" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="160">
+      <c r="N12" s="152">
         <f>SUM(N11:N11)</f>
-        <v>1.3309329600000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="O12" s="72"/>
     </row>
@@ -8890,31 +10302,31 @@
       <c r="O13" s="72"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="158" t="s">
+      <c r="E14" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="158" t="s">
+      <c r="G14" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="158" t="s">
+      <c r="H14" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="158" t="s">
+      <c r="I14" s="150" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="28"/>
@@ -8925,28 +10337,26 @@
       <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110">
+      <c r="A15" s="102">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="B15" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="37"/>
       <c r="D15" s="38">
         <v>1.3</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="200">
         <v>1</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38">
-        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <f t="shared" ref="I15:I19" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>1.3</v>
       </c>
       <c r="J15" s="68"/>
@@ -8956,34 +10366,30 @@
       <c r="N15" s="68"/>
       <c r="O15" s="79"/>
     </row>
-    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="74">
         <v>20</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>56</v>
+      <c r="B16" s="176" t="s">
+        <v>236</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="D16" s="36">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="39">
-        <v>135.8913</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="30">
-        <v>2.5</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F16" s="201">
+        <v>3.45</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="36">
         <f t="shared" si="0"/>
-        <v>3.3972825000000002</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
@@ -8993,7 +10399,1313 @@
       <c r="O16" s="72"/>
     </row>
     <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
+      <c r="A17" s="103">
+        <v>30</v>
+      </c>
+      <c r="B17" s="176" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="202">
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="36">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="76"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="74">
+        <v>40</v>
+      </c>
+      <c r="B18" s="176" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="201">
+        <v>4.54</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36">
+        <f t="shared" si="0"/>
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="72"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="74"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="72"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="78"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="152">
+        <f>SUM(I15:I19)</f>
+        <v>2.2696000000000001</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="72"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="82"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
+    <hyperlink ref="E3" location="dBR_01001" display="Drawing"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="22" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99FF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="108" t="str">
+        <f>BR_01001</f>
+        <v>FR_0300_000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="FR_0300_000" display="FR_0300_000"/>
+    <hyperlink ref="A1" location="EL_01001" display="Drawing part :"/>
+    <hyperlink ref="A1:B1" location="BR_01001" display="Drawing part :"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99FF"/>
+  </sheetPr>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="99">
+        <v>81</v>
+      </c>
+      <c r="L2" s="66"/>
+      <c r="M2" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="84">
+        <f>FR_0300_001_m+FR_0300_001_p</f>
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="O2" s="72"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>'FR A0300'!B3</f>
+        <v>Frame and Body</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="98">
+        <v>1</v>
+      </c>
+      <c r="O3" s="72"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="107" t="str">
+        <f>'FR A0300'!B4</f>
+        <v>Pedal box</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="72"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="84">
+        <f>N3*N2</f>
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="O5" s="72"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="72"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="72"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="72"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="100"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="72"/>
+    </row>
+    <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="101">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="27">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N11" s="36">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="O11" s="77"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="152">
+        <f>SUM(N11:N11)</f>
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="O12" s="72"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="73"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="72"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="72"/>
+    </row>
+    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="102">
+        <v>10</v>
+      </c>
+      <c r="B15" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="206">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36">
+        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="79"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="74">
+        <v>20</v>
+      </c>
+      <c r="B16" s="176" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="207">
+        <v>18.3</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="36">
+        <f t="shared" si="0"/>
+        <v>0.7320000000000001</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="72"/>
+    </row>
+    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="102">
+        <v>30</v>
+      </c>
+      <c r="B17" s="176" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="208">
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="36">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="76"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="74">
+        <v>40</v>
+      </c>
+      <c r="B18" s="176" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="207">
+        <v>14.2</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36">
+        <f t="shared" si="0"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="72"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="102">
+        <v>50</v>
+      </c>
+      <c r="B19" s="176" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="203"/>
+      <c r="D19" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="209">
+        <v>1</v>
+      </c>
+      <c r="G19" s="204"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="72"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="74">
+        <v>60</v>
+      </c>
+      <c r="B20" s="176" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="207">
+        <v>16.2</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="36">
+        <f t="shared" si="0"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="72"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="152">
+        <f>SUM(I15:I20)</f>
+        <v>4.548</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="82"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
+    <hyperlink ref="E3" location="dFR_A0300_001!A1" display="Drawing"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99FF"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="210" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="FR_0300_001!A1" display="Drawing part : "/>
+    <hyperlink ref="B1" location="FR_0300_001!A1" display="FR_A0300_001"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99FF"/>
+  </sheetPr>
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="3.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="99">
+        <v>81</v>
+      </c>
+      <c r="L2" s="66"/>
+      <c r="M2" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="84" t="e">
+        <f>BR_01001_m+BR_01001_p+BR_01001_f+BR_01001_t</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" s="72"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>'FR A0300'!B3</f>
+        <v>Frame and Body</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="98">
+        <v>1</v>
+      </c>
+      <c r="O3" s="72"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="107" t="str">
+        <f>'FR A0300'!B4</f>
+        <v>Pedal box</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="72"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="84" t="e">
+        <f>N3*N2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" s="72"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="72"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="72"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="72"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="100"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="72"/>
+    </row>
+    <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="101">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>116</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="116">
+        <f>(E11*10^-3)^2*3.14</f>
+        <v>4.2251840000000006E-2</v>
+      </c>
+      <c r="K11" s="25">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="L11" s="35">
+        <v>7000</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+      <c r="N11" s="36">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>1.3309329600000002</v>
+      </c>
+      <c r="O11" s="77"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="152">
+        <f>SUM(N11:N11)</f>
+        <v>1.3309329600000002</v>
+      </c>
+      <c r="O12" s="72"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="73"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="72"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="72"/>
+    </row>
+    <row r="15" spans="1:15" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="102">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="37">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38">
+        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="79"/>
+    </row>
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="74">
+        <v>20</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="39">
+        <v>135.8913</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="0"/>
+        <v>3.3972825000000002</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="72"/>
+    </row>
+    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="103"/>
       <c r="B17" s="31"/>
       <c r="C17" s="30"/>
       <c r="D17" s="36"/>
@@ -9033,7 +11745,7 @@
       <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9082,10 +11794,10 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="162" t="s">
+      <c r="H21" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="160">
+      <c r="I21" s="152">
         <f>SUM(I15:I20)</f>
         <v>4.6972825</v>
       </c>
@@ -9114,34 +11826,34 @@
       <c r="O22" s="72"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="158" t="s">
+      <c r="E23" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="158" t="s">
+      <c r="F23" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="158" t="s">
+      <c r="G23" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="158" t="s">
+      <c r="H23" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="158" t="s">
+      <c r="I23" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="158" t="s">
+      <c r="J23" s="150" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="66"/>
@@ -9221,10 +11933,10 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="162" t="s">
+      <c r="I27" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="160">
+      <c r="J27" s="152">
         <f>SUM(J24:J26)</f>
         <v>0</v>
       </c>
@@ -9235,7 +11947,7 @@
       <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -9252,31 +11964,31 @@
       <c r="O28" s="72"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="158" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="158" t="s">
+      <c r="B29" s="150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="158" t="s">
+      <c r="D29" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="158" t="s">
+      <c r="E29" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="158" t="s">
+      <c r="F29" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="158" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="158" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="158" t="s">
+      <c r="G29" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="150" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="28"/>
@@ -9291,16 +12003,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" s="36">
         <v>500</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F30" s="20">
         <v>5</v>
@@ -9347,10 +12059,10 @@
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="162" t="s">
+      <c r="H32" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="160">
+      <c r="I32" s="152">
         <f>SUM(I30:I31)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -9383,53 +12095,6 @@
     <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
     <hyperlink ref="E3" location="dBR_01001" display="Drawing"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="33" max="16383" man="1"/>
-    <brk id="67" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="116" t="str">
-        <f>BR_01001</f>
-        <v>FR 01001</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="EL_01001" display="EL_01001"/>
-    <hyperlink ref="A1" location="EL_01001" display="Drawing part :"/>
-    <hyperlink ref="A1:B1" location="BR_01001" display="Drawing part :"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FR - Frame & Body/FR_A0300 (Pedal Assy)/Cost/FR_A0300.xlsx
+++ b/FR - Frame & Body/FR_A0300 (Pedal Assy)/Cost/FR_A0300.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="19" activeTab="25"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="270">
   <si>
     <t>University</t>
   </si>
@@ -1079,6 +1079,9 @@
   </si>
   <si>
     <t>Painting the Mounts</t>
+  </si>
+  <si>
+    <t>Material - Aluminum</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1919,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -2245,10 +2248,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="174" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3805,7 +3804,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4239,8 +4238,12 @@
       <c r="F16" s="175">
         <v>35.9</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
         <v>0.35899999999999999</v>
@@ -4253,24 +4256,24 @@
       <c r="O16" s="61"/>
     </row>
     <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212">
+      <c r="A17" s="210">
         <v>30</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="214"/>
+      <c r="C17" s="212"/>
       <c r="D17" s="193">
         <v>0.25</v>
       </c>
-      <c r="E17" s="215" t="s">
+      <c r="E17" s="213" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="214">
+      <c r="F17" s="212">
         <v>3</v>
       </c>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
       <c r="I17" s="193">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -4283,26 +4286,30 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="217">
+      <c r="A18" s="215">
         <v>40</v>
       </c>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="217" t="s">
+      <c r="C18" s="215" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="219">
+      <c r="D18" s="217">
         <v>0.2</v>
       </c>
-      <c r="E18" s="220" t="s">
+      <c r="E18" s="218" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="217">
+      <c r="F18" s="215">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
+      <c r="G18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
       <c r="I18" s="193">
         <f t="shared" si="0"/>
         <v>3.2400000000000005E-2</v>
@@ -4400,7 +4407,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4834,8 +4841,12 @@
       <c r="F16" s="175">
         <v>31.2</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
         <v>0.312</v>
@@ -4848,24 +4859,24 @@
       <c r="O16" s="61"/>
     </row>
     <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212">
+      <c r="A17" s="210">
         <v>30</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="214"/>
+      <c r="C17" s="212"/>
       <c r="D17" s="193">
         <v>0.25</v>
       </c>
-      <c r="E17" s="215" t="s">
+      <c r="E17" s="213" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="214">
+      <c r="F17" s="212">
         <v>3</v>
       </c>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
       <c r="I17" s="193">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -4878,26 +4889,30 @@
       <c r="O17" s="65"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="216">
+      <c r="A18" s="214">
         <v>40</v>
       </c>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="216" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="217" t="s">
+      <c r="C18" s="215" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="219">
+      <c r="D18" s="217">
         <v>0.2</v>
       </c>
-      <c r="E18" s="220" t="s">
+      <c r="E18" s="218" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="216">
+      <c r="F18" s="214">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
+      <c r="G18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
       <c r="I18" s="193">
         <f t="shared" si="0"/>
         <v>3.2400000000000005E-2</v>
@@ -6895,7 +6910,7 @@
         <f t="shared" si="2"/>
         <v>Pedal box</v>
       </c>
-      <c r="F10" s="210" t="str">
+      <c r="F10" s="208" t="str">
         <f>FR_0300_002!B5</f>
         <v>Accelerator Pedal</v>
       </c>
@@ -7202,7 +7217,7 @@
       <c r="G16" s="110"/>
       <c r="H16" s="112">
         <f t="shared" si="0"/>
-        <v>3.8954950875000001</v>
+        <v>4.6954950875000003</v>
       </c>
       <c r="I16" s="113">
         <f>FR_A0300_q*FR_0300_008_q</f>
@@ -7214,7 +7229,7 @@
       </c>
       <c r="K16" s="114">
         <f>FR_0300_008_p</f>
-        <v>3.7800000000000002</v>
+        <v>4.58</v>
       </c>
       <c r="L16" s="114">
         <v>0</v>
@@ -7224,7 +7239,7 @@
       </c>
       <c r="N16" s="115">
         <f t="shared" si="1"/>
-        <v>3.8954950875000001</v>
+        <v>4.6954950875000003</v>
       </c>
       <c r="O16" s="116"/>
     </row>
@@ -7252,7 +7267,7 @@
       <c r="G17" s="110"/>
       <c r="H17" s="112">
         <f t="shared" si="0"/>
-        <v>0.69077112499999993</v>
+        <v>0.72533112500000008</v>
       </c>
       <c r="I17" s="113">
         <f>FR_A0300_q*FR_0300_009_q</f>
@@ -7264,7 +7279,7 @@
       </c>
       <c r="K17" s="114">
         <f>FR_0300_009_p</f>
-        <v>0.66727999999999998</v>
+        <v>0.70184000000000002</v>
       </c>
       <c r="L17" s="114">
         <v>0</v>
@@ -7274,17 +7289,17 @@
       </c>
       <c r="N17" s="115">
         <f t="shared" si="1"/>
-        <v>1.3815422499999999</v>
+        <v>1.4506622500000002</v>
       </c>
       <c r="O17" s="116"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="200"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="108" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C18" s="201" t="str">
+      <c r="C18" s="199" t="str">
         <f>FR_0300_010</f>
         <v>FR_0300_010</v>
       </c>
@@ -7295,14 +7310,14 @@
         <f t="shared" si="2"/>
         <v>Pedal box</v>
       </c>
-      <c r="F18" s="211" t="str">
+      <c r="F18" s="209" t="str">
         <f>FR_0300_010!B5</f>
         <v>External Spacer</v>
       </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="199"/>
       <c r="H18" s="112">
         <f t="shared" si="0"/>
-        <v>0.65891381250000003</v>
+        <v>0.66667381250000002</v>
       </c>
       <c r="I18" s="113">
         <f>FR_A0300_q*FR_0300_010_q</f>
@@ -7314,7 +7329,7 @@
       </c>
       <c r="K18" s="114">
         <f>FR_0300_010_p</f>
-        <v>0.65388000000000002</v>
+        <v>0.66164000000000001</v>
       </c>
       <c r="L18" s="114">
         <v>0</v>
@@ -7324,17 +7339,17 @@
       </c>
       <c r="N18" s="115">
         <f t="shared" si="1"/>
-        <v>1.3178276250000001</v>
-      </c>
-      <c r="O18" s="202"/>
+        <v>1.333347625</v>
+      </c>
+      <c r="O18" s="200"/>
     </row>
     <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="200"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="108" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C19" s="201" t="str">
+      <c r="C19" s="199" t="str">
         <f>FR_0300_011</f>
         <v>FR_0300_011</v>
       </c>
@@ -7345,11 +7360,11 @@
         <f t="shared" si="2"/>
         <v>Pedal box</v>
       </c>
-      <c r="F19" s="211" t="str">
+      <c r="F19" s="209" t="str">
         <f>FR_0300_011!B5</f>
         <v>Rear Rail Mount</v>
       </c>
-      <c r="G19" s="201"/>
+      <c r="G19" s="199"/>
       <c r="H19" s="112">
         <f t="shared" si="0"/>
         <v>0.85994725000000005</v>
@@ -7376,15 +7391,15 @@
         <f t="shared" si="1"/>
         <v>3.4397890000000002</v>
       </c>
-      <c r="O19" s="202"/>
+      <c r="O19" s="200"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="200"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="108" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C20" s="201" t="str">
+      <c r="C20" s="199" t="str">
         <f>FR_0300_012</f>
         <v>FR_0300_012</v>
       </c>
@@ -7395,11 +7410,11 @@
         <f t="shared" si="2"/>
         <v>Pedal box</v>
       </c>
-      <c r="F20" s="211" t="str">
+      <c r="F20" s="209" t="str">
         <f>FR_0300_012!B5</f>
         <v>Front Rail Mount</v>
       </c>
-      <c r="G20" s="201"/>
+      <c r="G20" s="199"/>
       <c r="H20" s="112">
         <f t="shared" si="0"/>
         <v>0.79530246250000003</v>
@@ -7426,15 +7441,15 @@
         <f t="shared" si="1"/>
         <v>3.1812098500000001</v>
       </c>
-      <c r="O20" s="202"/>
+      <c r="O20" s="200"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="200"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="108" t="str">
         <f>'FR A0300'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C21" s="201" t="str">
+      <c r="C21" s="199" t="str">
         <f>FR_0300_013</f>
         <v>FR_0300_013</v>
       </c>
@@ -7445,11 +7460,11 @@
         <f t="shared" si="2"/>
         <v>Pedal box</v>
       </c>
-      <c r="F21" s="211" t="str">
+      <c r="F21" s="209" t="str">
         <f>FR_0300_013!B5</f>
         <v>Sheath for cable mount</v>
       </c>
-      <c r="G21" s="201"/>
+      <c r="G21" s="199"/>
       <c r="H21" s="112">
         <f t="shared" si="0"/>
         <v>1.8554658250000002</v>
@@ -7476,44 +7491,44 @@
         <f t="shared" si="1"/>
         <v>1.8554658250000002</v>
       </c>
-      <c r="O21" s="202"/>
+      <c r="O21" s="200"/>
     </row>
     <row r="22" spans="1:15" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
-      <c r="B22" s="204" t="str">
+      <c r="A22" s="201"/>
+      <c r="B22" s="202" t="str">
         <f>'FR A0300'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="204" t="s">
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="205"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208">
+      <c r="G22" s="203"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="206">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
         <v>23.898862275500004</v>
       </c>
-      <c r="K22" s="208">
+      <c r="K22" s="206">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
-        <v>68.643359999999987</v>
-      </c>
-      <c r="L22" s="208">
+        <v>69.512479999999996</v>
+      </c>
+      <c r="L22" s="206">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
         <v>3.8727105739649841</v>
       </c>
-      <c r="M22" s="208">
+      <c r="M22" s="206">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
         <v>3</v>
       </c>
-      <c r="N22" s="208">
+      <c r="N22" s="206">
         <f>SUM(N7:N17)</f>
-        <v>99.414932849464975</v>
-      </c>
-      <c r="O22" s="209"/>
+        <v>100.28405284946498</v>
+      </c>
+      <c r="O22" s="207"/>
     </row>
     <row r="23" spans="1:15" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -9770,12 +9785,13 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
@@ -9825,7 +9841,7 @@
       </c>
       <c r="N2" s="73">
         <f>FR_0300_008_m+FR_0300_008_p</f>
-        <v>3.8954950875000001</v>
+        <v>4.6954950875000003</v>
       </c>
       <c r="O2" s="61"/>
     </row>
@@ -9911,7 +9927,7 @@
       </c>
       <c r="N5" s="73">
         <f>N3*N2</f>
-        <v>3.8954950875000001</v>
+        <v>4.6954950875000003</v>
       </c>
       <c r="O5" s="61"/>
     </row>
@@ -10197,11 +10213,15 @@
       <c r="F16" s="174">
         <v>4</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -10214,7 +10234,7 @@
       <c r="A17" s="81">
         <v>30</v>
       </c>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="195" t="s">
         <v>204</v>
       </c>
       <c r="C17" s="23"/>
@@ -10244,7 +10264,7 @@
       <c r="A18" s="63">
         <v>40</v>
       </c>
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="195" t="s">
         <v>257</v>
       </c>
       <c r="C18" s="14"/>
@@ -10274,7 +10294,7 @@
       <c r="A19" s="80">
         <v>50</v>
       </c>
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="195" t="s">
         <v>259</v>
       </c>
       <c r="C19" s="192"/>
@@ -10284,11 +10304,11 @@
       <c r="E19" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="196">
+      <c r="F19" s="194">
         <v>0.8</v>
       </c>
-      <c r="G19" s="194"/>
-      <c r="H19" s="195"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="29">
         <f t="shared" si="0"/>
         <v>8.0000000000000016E-2</v>
@@ -10304,7 +10324,7 @@
       <c r="A20" s="63">
         <v>60</v>
       </c>
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="195" t="s">
         <v>204</v>
       </c>
       <c r="C20" s="188"/>
@@ -10334,7 +10354,7 @@
       <c r="A21" s="81">
         <v>70</v>
       </c>
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="195" t="s">
         <v>257</v>
       </c>
       <c r="C21" s="190"/>
@@ -10373,7 +10393,7 @@
       </c>
       <c r="I22" s="126">
         <f>SUM(I15:I21)</f>
-        <v>3.7800000000000002</v>
+        <v>4.58</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
@@ -10444,7 +10464,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10501,7 +10521,7 @@
       </c>
       <c r="N2" s="73">
         <f>FR_0300_009_m+FR_0300_009_p</f>
-        <v>0.69077112499999993</v>
+        <v>0.72533112500000008</v>
       </c>
       <c r="O2" s="61"/>
     </row>
@@ -10587,7 +10607,7 @@
       </c>
       <c r="N5" s="73">
         <f>N3*N2</f>
-        <v>1.3815422499999999</v>
+        <v>1.4506622500000002</v>
       </c>
       <c r="O5" s="61"/>
     </row>
@@ -10874,14 +10894,18 @@
       <c r="E16" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <v>0.432</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
-        <v>1.728E-2</v>
+        <v>5.1839999999999997E-2</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -10903,7 +10927,7 @@
       </c>
       <c r="I17" s="126">
         <f>SUM(I15:I16)</f>
-        <v>0.66727999999999998</v>
+        <v>0.70184000000000002</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -10976,7 +11000,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11032,7 +11056,7 @@
       </c>
       <c r="N2" s="73">
         <f>FR_0300_010_m+FR_0300_010_p</f>
-        <v>0.65891381250000003</v>
+        <v>0.66667381250000002</v>
       </c>
       <c r="O2" s="61"/>
     </row>
@@ -11118,7 +11142,7 @@
       </c>
       <c r="N5" s="73">
         <f>N3*N2</f>
-        <v>1.3178276250000001</v>
+        <v>1.333347625</v>
       </c>
       <c r="O5" s="61"/>
     </row>
@@ -11395,7 +11419,7 @@
       <c r="A16" s="63">
         <v>20</v>
       </c>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="195" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="14"/>
@@ -11405,14 +11429,18 @@
       <c r="E16" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="199">
+      <c r="G16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3</v>
+      </c>
+      <c r="I16" s="197">
         <f t="shared" si="0"/>
-        <v>3.8800000000000002E-3</v>
+        <v>1.1640000000000001E-2</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -11434,7 +11462,7 @@
       </c>
       <c r="I17" s="126">
         <f>SUM(I15:I16)</f>
-        <v>0.65388000000000002</v>
+        <v>0.66164000000000001</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -11506,8 +11534,8 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12575,9 +12603,7 @@
   </sheetPr>
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12641,7 +12667,7 @@
       </c>
       <c r="N2" s="90">
         <f>FR_A0300_pa+FR_A0300_m+FR_A0300_p+FR_A0300_f+FR_A0300_t</f>
-        <v>109.20922514946497</v>
+        <v>110.09386514946497</v>
       </c>
       <c r="O2" s="61"/>
     </row>
@@ -12717,7 +12743,7 @@
       </c>
       <c r="N5" s="73">
         <f>N2*N3</f>
-        <v>109.20922514946497</v>
+        <v>110.09386514946497</v>
       </c>
       <c r="O5" s="61"/>
     </row>
@@ -13058,7 +13084,7 @@
       </c>
       <c r="C18" s="129">
         <f>FR_0300_008!N2</f>
-        <v>3.8954950875000001</v>
+        <v>4.6954950875000003</v>
       </c>
       <c r="D18" s="72">
         <f>FR_0300_008_q</f>
@@ -13066,7 +13092,7 @@
       </c>
       <c r="E18" s="73">
         <f t="shared" si="0"/>
-        <v>3.8954950875000001</v>
+        <v>4.6954950875000003</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -13088,7 +13114,7 @@
       </c>
       <c r="C19" s="129">
         <f>FR_0300_009!N2</f>
-        <v>0.69077112499999993</v>
+        <v>0.72533112500000008</v>
       </c>
       <c r="D19" s="72">
         <f>FR_0300_009_q</f>
@@ -13096,7 +13122,7 @@
       </c>
       <c r="E19" s="73">
         <f t="shared" si="0"/>
-        <v>1.3815422499999999</v>
+        <v>1.4506622500000002</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
@@ -13118,7 +13144,7 @@
       </c>
       <c r="C20" s="129">
         <f>FR_0300_010!N2</f>
-        <v>0.65891381250000003</v>
+        <v>0.66667381250000002</v>
       </c>
       <c r="D20" s="72">
         <f>FR_0300_010_q</f>
@@ -13126,7 +13152,7 @@
       </c>
       <c r="E20" s="73">
         <f t="shared" si="0"/>
-        <v>1.3178276250000001</v>
+        <v>1.333347625</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -13238,7 +13264,7 @@
       </c>
       <c r="E24" s="94">
         <f>SUM(E10:E23)</f>
-        <v>51.991514575499998</v>
+        <v>52.876154575499996</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
@@ -13317,10 +13343,10 @@
       <c r="A27" s="138">
         <v>10</v>
       </c>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="221" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="222" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="140">
@@ -13335,14 +13361,14 @@
       <c r="G27" s="138">
         <v>10</v>
       </c>
-      <c r="H27" s="225" t="s">
+      <c r="H27" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="226"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="225"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="225">
+      <c r="I27" s="224"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="223">
         <v>4</v>
       </c>
       <c r="N27" s="140">
@@ -13352,32 +13378,32 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="229">
+      <c r="A28" s="227">
         <v>20</v>
       </c>
-      <c r="B28" s="221" t="s">
+      <c r="B28" s="219" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="229" t="s">
+      <c r="C28" s="227" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="230">
+      <c r="D28" s="228">
         <v>10</v>
       </c>
-      <c r="E28" s="229">
+      <c r="E28" s="227">
         <f>F34</f>
         <v>0.18</v>
       </c>
-      <c r="F28" s="229" t="s">
+      <c r="F28" s="227" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="229"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="231">
+      <c r="G28" s="227"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="229"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="229">
         <f>E28</f>
         <v>0.18</v>
       </c>
@@ -13400,7 +13426,7 @@
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="222" t="s">
+      <c r="M29" s="220" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="97">
@@ -15966,7 +15992,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16494,7 +16520,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C31" sqref="C30:C31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16503,7 +16529,7 @@
     <col min="2" max="2" width="33.44140625"/>
     <col min="3" max="3" width="23"/>
     <col min="4" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="14.109375"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="10.5546875"/>
     <col min="13" max="13" width="15.33203125"/>
     <col min="14" max="14" width="10.5546875"/>
@@ -16930,8 +16956,12 @@
       <c r="F16" s="169">
         <v>3.45</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
@@ -16992,8 +17022,12 @@
       <c r="F18" s="169">
         <v>4.54</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
       <c r="I18" s="29">
         <f t="shared" si="0"/>
         <v>0.18160000000000001</v>
@@ -17123,7 +17157,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17131,6 +17165,7 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17553,8 +17588,12 @@
       <c r="F16" s="175">
         <v>18.3</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
         <v>0.7320000000000001</v>
@@ -17615,8 +17654,12 @@
       <c r="F18" s="175">
         <v>14.2</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
       <c r="I18" s="29">
         <f t="shared" si="0"/>
         <v>0.56799999999999995</v>
@@ -17677,8 +17720,12 @@
       <c r="F20" s="175">
         <v>16.2</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
       <c r="I20" s="29">
         <f t="shared" si="0"/>
         <v>0.64800000000000002</v>
@@ -17780,12 +17827,13 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18208,8 +18256,12 @@
       <c r="F16" s="175">
         <v>43.6</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
         <v>1.744</v>
@@ -18270,8 +18322,12 @@
       <c r="F18" s="175">
         <v>0.2</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
       <c r="I18" s="29">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
